--- a/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_create.xlsx
+++ b/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_create.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="11385"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,1701 +14,1797 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565">
-  <si>
-    <t>[请|邀]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[在|于]{time}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>让{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}[在|于]{time}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}[在|于]{time}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}[在|于]{time}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}让{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}让{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}让{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}让{person}[和|跟|与|还有]{person}[在|于][要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}让{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}让{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[和|跟|与|还有]{person}[要|做|来|去]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}请{person}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}让{person}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}请{person}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}请{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}让{person}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}让{person}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[叫|喊]{person}</t>
-  </si>
-  <si>
-    <t>{time}让{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[叫|喊]{person}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[和|约]{person}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[和|约]{person}</t>
-  </si>
-  <si>
-    <t>{time}[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}[邀请|约请]{person}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}[喊上|叫上|约上]{person}</t>
-  </si>
-  <si>
-    <t>{time}[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[邀请|约请]{person}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[喊上|叫上|约上]{person}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}[告诉|告知]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[告诉|告知]{person}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[告诉|告知]{person}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}安排{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}安排{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}安排{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}通知{person}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}通知{person}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}通知{person}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[请|邀]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}让{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[叫|喊]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[和|约]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}{person}{person}[和|跟|与|还有]{person}[要|去|做|来]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[请|邀]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[请|邀]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}让{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}让{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[叫|喊]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[叫|喊]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[和|约]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[和|约]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}[邀请|约请]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}[喊上|叫上|约上]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[邀请|约请]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[喊上|叫上|约上]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}[告诉|告知]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}{person}{person}[和|跟|与|还有]{person}[一起|一同|一块|去做|搞定]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[告诉|告知]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[告诉|告知]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}安排{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}安排{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}安排{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|做|来|去]{schedule}通知{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}通知{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}通知{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}{person}{person}{person}[和|跟|与|还有]{person}[完成|完结|达成|实现|结束]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}让{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>[让|叫|喊]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}让{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>[让|叫|喊]{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}让{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[请|邀]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>通知{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[请|邀]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>通知{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>安排{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[叫|喊]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>安排{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[和|约]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>[让|叫|喊]{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[和|约]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>[让|叫|喊]{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}[在|于]{time}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}让{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}通知{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}让{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}让{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}安排{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[请|邀]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[请|邀]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[和|约]{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[让|叫|喊]{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[叫|喊]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[让|叫|喊]{person}[和|跟|与|还有]{person}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}通知{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[和|约]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}通知{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[和|约]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}安排{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}安排{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[和|约]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}让{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[和|约]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}让{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[让|叫|喊]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}让{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[让|叫|喊]{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[请|邀]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[请|邀]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[请|邀]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[叫|喊]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[叫|喊]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[和|约]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[和|约]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[邀请|约请]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[告诉|告知]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要|去|做|来]{schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[邀请|约请]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[告诉|告知]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[一起|一同|一块|去做|搞定]{schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[邀请|约请]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[邀请|约请]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[邀请|约请]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[喊上|叫上|约上]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[喊上|叫上|约上]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[喊上|叫上|约上]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[告诉|告知]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[告诉|告知]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}[告诉|告知]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[完成|完结|达成|实现|结束]{schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>[让|叫|喊]{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>[让|叫|喊]{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>[让|叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}[要去|打算|准备|筹备|计划]{schedule}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[和|约]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[和|约]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[和|约]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[让|叫|喊]{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[让|叫|喊]{person}{person}{person}[和|跟|与|还有]{person}</t>
-  </si>
-  <si>
-    <t>{time}[要去|打算|准备|筹备|计划]{schedule}[让|叫|喊]{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597">
+  <si>
+    <t>(请|邀){person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[和|跟|与|还有]{person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[和|跟|与|还有]{person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>让{person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}(要|做|来|去){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}让{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}让{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}让{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}让{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}让{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}让{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}[和|跟|与|还有]{person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}[和|跟|与|还有]{person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person)[和|跟|与|还有]{person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}[和|跟|与|还有]{person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}[和|跟|与|还有]{person}(要|做|来|去){schedule}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}请{person}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}让{person}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}请{person}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}请{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}让{person}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}让{person}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(叫|喊){person}</t>
+  </si>
+  <si>
+    <t>{time}让{person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(叫|喊){person}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(和|约){person}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(和|约){person}</t>
+  </si>
+  <si>
+    <t>{time}(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}(邀请|约请){person}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}(喊上|叫上|约上){person}</t>
+  </si>
+  <si>
+    <t>{time}(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(邀请|约请){person}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(喊上|叫上|约上){person}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}(告诉|告知){person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(告诉|告知){person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(告诉|告知){person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}安排{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}安排{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}安排{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}通知{person}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}通知{person}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}通知{person}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(请|邀){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}让{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(叫|喊){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(和|约){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}{person}{person}[和|跟|与|还有]{person}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(请|邀){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(请|邀){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}让{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}让{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(叫|喊){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(叫|喊){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(和|约){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(和|约){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}(邀请|约请){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}(喊上|叫上|约上){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(邀请|约请){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(喊上|叫上|约上){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}(告诉|告知){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}{person}{person}[和|跟|与|还有]{person}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(告诉|告知){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(告诉|告知){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}安排{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}安排{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}安排{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|做|来|去){schedule}通知{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}通知{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}通知{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}{person}{person}{person}[和|跟|与|还有]{person}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}让{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(让|叫|喊){person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}让{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(让|叫|喊){person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}让{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(请|邀){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>通知{person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(请|邀){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>通知{person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>安排{person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(叫|喊){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>安排{person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(叫|喊){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(和|约){person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(和|约){person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(和|约){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(让|叫|喊){person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(和|约){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(让|叫|喊){person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}[在|于]{time}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}让{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}通知{person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}让{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}让{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}安排{person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(请|邀){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(请|邀){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(和|约){person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(让|叫|喊){person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(叫|喊){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(让|叫|喊){person}[和|跟|与|还有]{person}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(叫|喊){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}通知{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(和|约){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}通知{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(和|约){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}安排{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}安排{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(和|约){person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}让{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(和|约){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}让{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(叫上|喊上){person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}让{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(叫上|喊上){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(请|邀){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(请|邀){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(请|邀){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(叫|喊){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(叫|喊){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(和|约){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(请|让|邀|约|和){person}[在|于]{time}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(和|约){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}[在|于]{time}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[在|于]{time}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(邀请|约请){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(请|让|邀|约|和){person}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}{schedule}(请|让|邀|约|和){person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}{schedule}(邀请|约请){person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(告诉|告知){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}{schedule}(喊上|叫上|约上){person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[和|跟|与|还有]{person}[和|跟|与|还有]{person}[在|于]{time}(要|去|做|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[和|跟|与|还有]{person}[在|于]{time}(一起|一同|一块|去做|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[和|跟|与|还有]{person}[在|于]{time}(完成|完结|达成|实现|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要|去|做|来){schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(请|让|邀|约|和){person}[和|跟|与|还有]{person}[在|于]{time}{schedule}</t>
+  </si>
+  <si>
+    <t>(邀请|约请){person}[和|跟|与|还有]{person}[在|于]{time}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(邀请|约请){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>(喊上|叫上|约上){person}[和|跟|与|还有]{person}[在|于]{time}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(请|让|邀|约|和){person}[和|跟|与|还有]{person}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(邀请|约请){person}[和|跟|与|还有]{person}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(喊上|叫上|约上){person}[和|跟|与|还有]{person}{schedule}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(告诉|告知){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}{schedule}(请|让|邀|约|和){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}{schedule}(邀请|约请){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}{schedule}(喊上|叫上|约上){person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(一起|一同|一块|去做|搞定){schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(邀请|约请){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(邀请|约请){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(邀请|约请){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(喊上|叫上|约上){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(喊上|叫上|约上){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(喊上|叫上|约上){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(告诉|告知){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(告诉|告知){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}(告诉|告知){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(完成|完结|达成|实现|结束){schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>(让|叫|喊){person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>(让|叫|喊){person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>(让|叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}[在|于]{time}(要去|打算|准备|筹备|计划){schedule}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}通知{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}通知{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}通知{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}安排{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}安排{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}安排{person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(和|约){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(和|约){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(和|约){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(让|叫|喊){person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(让|叫|喊){person}{person}{person}[和|跟|与|还有]{person}</t>
+  </si>
+  <si>
+    <t>{time}(要去|打算|准备|筹备|计划){schedule}(让|叫|喊){person}{person}{person}{person}[和|跟|与|还有]{person}</t>
   </si>
 </sst>
 </file>
@@ -1716,10 +1812,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1737,16 +1833,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,6 +1851,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1783,14 +1879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1798,9 +1886,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1816,17 +1940,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1838,37 +1954,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,7 +1979,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,73 +2141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,97 +2153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2074,60 +2170,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2146,7 +2188,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2169,8 +2211,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2182,10 +2278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2194,133 +2290,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2389,6 +2485,18 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2687,8 +2795,8 @@
   <sheetPr/>
   <dimension ref="B1:P373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="H287" sqref="H287"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3248,7 +3356,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="J28" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -3259,7 +3367,7 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3268,7 +3376,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -3279,7 +3387,7 @@
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3288,7 +3396,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3306,7 +3414,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3317,7 +3425,7 @@
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3326,7 +3434,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3337,7 +3445,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3346,7 +3454,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3357,7 +3465,7 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3366,7 +3474,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3377,7 +3485,7 @@
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3386,7 +3494,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3404,7 +3512,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3415,7 +3523,7 @@
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3424,7 +3532,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3435,7 +3543,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3453,7 +3561,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3462,7 +3570,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3473,7 +3581,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3482,7 +3590,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="J40" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3493,7 +3601,7 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3502,7 +3610,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="J41" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3513,7 +3621,7 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3522,7 +3630,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="J42" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3533,7 +3641,7 @@
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3542,7 +3650,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="J43" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3553,7 +3661,7 @@
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3562,7 +3670,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3580,7 +3688,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3591,7 +3699,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3600,7 +3708,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3611,7 +3719,7 @@
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3620,7 +3728,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3631,7 +3739,7 @@
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3640,7 +3748,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3651,7 +3759,7 @@
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3660,7 +3768,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3678,7 +3786,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3689,7 +3797,7 @@
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3707,7 +3815,7 @@
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3716,7 +3824,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3727,7 +3835,7 @@
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3736,7 +3844,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3754,7 +3862,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3765,7 +3873,7 @@
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -3774,7 +3882,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="J55" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3785,7 +3893,7 @@
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3794,7 +3902,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="J56" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3805,7 +3913,7 @@
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3814,7 +3922,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="J57" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3832,7 +3940,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="J58" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3843,7 +3951,7 @@
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3852,7 +3960,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="J59" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3863,7 +3971,7 @@
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3872,7 +3980,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="J60" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3883,7 +3991,7 @@
     </row>
     <row r="61" spans="2:16">
       <c r="B61" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3908,7 +4016,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="J62" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3926,7 +4034,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="J63" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3937,7 +4045,7 @@
     </row>
     <row r="64" spans="2:16">
       <c r="B64" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -3946,7 +4054,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="J64" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3957,7 +4065,7 @@
     </row>
     <row r="65" spans="2:16">
       <c r="B65" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3966,7 +4074,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -3977,7 +4085,7 @@
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3986,7 +4094,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="J66" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -3997,7 +4105,7 @@
     </row>
     <row r="67" spans="2:16">
       <c r="B67" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4006,7 +4114,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="J67" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4024,7 +4132,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4035,7 +4143,7 @@
     </row>
     <row r="69" spans="2:16">
       <c r="B69" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4044,7 +4152,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="J69" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4055,7 +4163,7 @@
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4064,7 +4172,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="J70" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4075,7 +4183,7 @@
     </row>
     <row r="71" spans="2:16">
       <c r="B71" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4084,7 +4192,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="J71" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4095,7 +4203,7 @@
     </row>
     <row r="72" spans="2:16">
       <c r="B72" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4104,7 +4212,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="J72" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4115,7 +4223,7 @@
     </row>
     <row r="73" spans="2:16">
       <c r="B73" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4124,7 +4232,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="J73" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4135,7 +4243,7 @@
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4144,7 +4252,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="J74" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4155,7 +4263,7 @@
     </row>
     <row r="75" spans="2:16">
       <c r="B75" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4164,7 +4272,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="J75" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -4175,7 +4283,7 @@
     </row>
     <row r="76" spans="2:16">
       <c r="B76" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4184,7 +4292,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="J76" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -4202,7 +4310,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="J77" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -4213,7 +4321,7 @@
     </row>
     <row r="78" spans="2:16">
       <c r="B78" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4222,7 +4330,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="J78" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -4233,7 +4341,7 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4242,7 +4350,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="J79" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -4253,7 +4361,7 @@
     </row>
     <row r="80" spans="2:16">
       <c r="B80" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4271,7 +4379,7 @@
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4296,7 +4404,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="J82" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4307,7 +4415,7 @@
     </row>
     <row r="83" spans="2:16">
       <c r="B83" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4316,7 +4424,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="J83" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4327,7 +4435,7 @@
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4336,7 +4444,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="J84" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4347,7 +4455,7 @@
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4356,7 +4464,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="J85" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4374,7 +4482,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="J86" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4385,7 +4493,7 @@
     </row>
     <row r="87" spans="2:16">
       <c r="B87" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4394,7 +4502,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="J87" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4405,7 +4513,7 @@
     </row>
     <row r="88" spans="2:16">
       <c r="B88" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4414,7 +4522,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="J88" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4425,7 +4533,7 @@
     </row>
     <row r="89" spans="2:16">
       <c r="B89" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4434,7 +4542,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="J89" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -4452,7 +4560,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="J90" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4463,7 +4571,7 @@
     </row>
     <row r="91" spans="2:16">
       <c r="B91" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4472,7 +4580,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="J91" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4483,7 +4591,7 @@
     </row>
     <row r="92" spans="2:16">
       <c r="B92" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4492,7 +4600,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="J92" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4503,7 +4611,7 @@
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4512,7 +4620,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="J93" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -4539,7 +4647,7 @@
     </row>
     <row r="95" spans="2:16">
       <c r="B95" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4548,7 +4656,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="J95" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -4559,7 +4667,7 @@
     </row>
     <row r="96" spans="2:16">
       <c r="B96" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4568,7 +4676,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="J96" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -4579,7 +4687,7 @@
     </row>
     <row r="97" spans="2:16">
       <c r="B97" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4588,7 +4696,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="J97" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -4599,7 +4707,7 @@
     </row>
     <row r="98" spans="2:16">
       <c r="B98" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4608,7 +4716,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="J98" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -4626,7 +4734,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="J99" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -4637,7 +4745,7 @@
     </row>
     <row r="100" spans="2:16">
       <c r="B100" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4646,7 +4754,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="J100" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -4657,7 +4765,7 @@
     </row>
     <row r="101" spans="2:16">
       <c r="B101" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4666,7 +4774,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="J101" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -4677,7 +4785,7 @@
     </row>
     <row r="102" spans="2:16">
       <c r="B102" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4686,7 +4794,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="J102" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -4697,7 +4805,7 @@
     </row>
     <row r="103" spans="2:16">
       <c r="B103" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4706,7 +4814,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="J103" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -4717,7 +4825,7 @@
     </row>
     <row r="104" spans="2:16">
       <c r="B104" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4726,7 +4834,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="J104" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -4737,7 +4845,7 @@
     </row>
     <row r="105" spans="2:16">
       <c r="B105" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4746,7 +4854,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="J105" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -4757,7 +4865,7 @@
     </row>
     <row r="106" spans="2:16">
       <c r="B106" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4766,7 +4874,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="J106" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -4777,7 +4885,7 @@
     </row>
     <row r="107" spans="2:16">
       <c r="B107" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4802,7 +4910,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="J108" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -4812,9 +4920,7 @@
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="2:16">
-      <c r="B109" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4822,7 +4928,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="J109" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -4833,7 +4939,7 @@
     </row>
     <row r="110" spans="2:16">
       <c r="B110" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4842,7 +4948,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="J110" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -4853,7 +4959,7 @@
     </row>
     <row r="111" spans="2:16">
       <c r="B111" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4862,7 +4968,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="J111" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -4873,7 +4979,7 @@
     </row>
     <row r="112" spans="2:16">
       <c r="B112" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4882,7 +4988,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="J112" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -4900,7 +5006,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="J113" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -4911,7 +5017,7 @@
     </row>
     <row r="114" spans="2:16">
       <c r="B114" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4920,7 +5026,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="J114" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -4931,7 +5037,7 @@
     </row>
     <row r="115" spans="2:16">
       <c r="B115" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4940,7 +5046,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="J115" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -4951,7 +5057,7 @@
     </row>
     <row r="116" spans="2:16">
       <c r="B116" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4960,7 +5066,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="J116" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -4978,7 +5084,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="J117" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -4989,7 +5095,7 @@
     </row>
     <row r="118" spans="2:16">
       <c r="B118" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4998,7 +5104,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="J118" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -5009,7 +5115,7 @@
     </row>
     <row r="119" spans="2:16">
       <c r="B119" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -5018,7 +5124,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="J119" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -5029,7 +5135,7 @@
     </row>
     <row r="120" spans="2:16">
       <c r="B120" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -5054,7 +5160,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="J121" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -5065,7 +5171,7 @@
     </row>
     <row r="122" spans="2:16">
       <c r="B122" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -5074,7 +5180,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="J122" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -5085,7 +5191,7 @@
     </row>
     <row r="123" spans="2:16">
       <c r="B123" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -5094,7 +5200,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="J123" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -5105,7 +5211,7 @@
     </row>
     <row r="124" spans="2:16">
       <c r="B124" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -5114,7 +5220,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="J124" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -5132,7 +5238,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="J125" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -5143,7 +5249,7 @@
     </row>
     <row r="126" spans="2:16">
       <c r="B126" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5152,7 +5258,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -5163,7 +5269,7 @@
     </row>
     <row r="127" spans="2:16">
       <c r="B127" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -5172,7 +5278,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="J127" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
@@ -5183,7 +5289,7 @@
     </row>
     <row r="128" spans="2:16">
       <c r="B128" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -5192,7 +5298,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="J128" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
@@ -5203,7 +5309,7 @@
     </row>
     <row r="129" spans="2:16">
       <c r="B129" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -5212,7 +5318,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="J129" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
@@ -5230,7 +5336,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="J130" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
@@ -5241,7 +5347,7 @@
     </row>
     <row r="131" spans="2:16">
       <c r="B131" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5250,7 +5356,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="J131" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -5261,7 +5367,7 @@
     </row>
     <row r="132" spans="2:16">
       <c r="B132" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5270,7 +5376,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="J132" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
@@ -5281,7 +5387,7 @@
     </row>
     <row r="133" spans="2:16">
       <c r="B133" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5290,7 +5396,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="J133" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
@@ -5301,7 +5407,7 @@
     </row>
     <row r="134" spans="2:16">
       <c r="B134" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5310,7 +5416,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="J134" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
@@ -5321,7 +5427,7 @@
     </row>
     <row r="135" spans="2:16">
       <c r="B135" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5330,7 +5436,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="J135" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
@@ -5341,7 +5447,7 @@
     </row>
     <row r="136" spans="2:16">
       <c r="B136" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5359,7 +5465,7 @@
     </row>
     <row r="137" spans="2:16">
       <c r="B137" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5368,7 +5474,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="J137" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
@@ -5379,7 +5485,7 @@
     </row>
     <row r="138" spans="2:16">
       <c r="B138" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5388,7 +5494,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="J138" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
@@ -5406,7 +5512,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="J139" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -5417,7 +5523,7 @@
     </row>
     <row r="140" spans="2:16">
       <c r="B140" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5426,7 +5532,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="J140" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
@@ -5437,7 +5543,7 @@
     </row>
     <row r="141" spans="2:16">
       <c r="B141" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5446,7 +5552,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="J141" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -5457,7 +5563,7 @@
     </row>
     <row r="142" spans="2:16">
       <c r="B142" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5466,7 +5572,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="J142" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
@@ -5477,7 +5583,7 @@
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5486,7 +5592,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="J143" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -5504,7 +5610,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="J144" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -5515,7 +5621,7 @@
     </row>
     <row r="145" spans="2:16">
       <c r="B145" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5524,7 +5630,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="J145" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -5535,7 +5641,7 @@
     </row>
     <row r="146" spans="2:16">
       <c r="B146" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5544,7 +5650,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="J146" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -5555,7 +5661,7 @@
     </row>
     <row r="147" spans="2:16">
       <c r="B147" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5564,7 +5670,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="J147" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
@@ -5582,7 +5688,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="J148" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
@@ -5593,7 +5699,7 @@
     </row>
     <row r="149" spans="2:16">
       <c r="B149" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5602,7 +5708,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="J149" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
@@ -5613,7 +5719,7 @@
     </row>
     <row r="150" spans="2:16">
       <c r="B150" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5622,7 +5728,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="J150" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
@@ -5633,7 +5739,7 @@
     </row>
     <row r="151" spans="2:16">
       <c r="B151" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5642,7 +5748,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="J151" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
@@ -5669,7 +5775,7 @@
     </row>
     <row r="153" spans="2:16">
       <c r="B153" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5678,7 +5784,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="J153" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -5689,7 +5795,7 @@
     </row>
     <row r="154" spans="2:16">
       <c r="B154" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5698,7 +5804,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="J154" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -5709,7 +5815,7 @@
     </row>
     <row r="155" spans="2:16">
       <c r="B155" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5718,7 +5824,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="J155" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -5736,7 +5842,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="J156" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -5747,7 +5853,7 @@
     </row>
     <row r="157" spans="2:16">
       <c r="B157" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5756,7 +5862,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="J157" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -5767,7 +5873,7 @@
     </row>
     <row r="158" spans="2:16">
       <c r="B158" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5776,7 +5882,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="J158" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -5787,7 +5893,7 @@
     </row>
     <row r="159" spans="2:16">
       <c r="B159" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5796,7 +5902,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="J159" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -5807,7 +5913,7 @@
     </row>
     <row r="160" spans="2:16">
       <c r="B160" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5816,7 +5922,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="J160" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -5834,7 +5940,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="J161" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -5845,7 +5951,7 @@
     </row>
     <row r="162" spans="2:16">
       <c r="B162" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5854,7 +5960,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="J162" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -5865,7 +5971,7 @@
     </row>
     <row r="163" spans="2:16">
       <c r="B163" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5874,7 +5980,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="J163" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -5885,7 +5991,7 @@
     </row>
     <row r="164" spans="2:16">
       <c r="B164" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5894,7 +6000,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="J164" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -5905,7 +6011,7 @@
     </row>
     <row r="165" spans="2:16">
       <c r="B165" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5914,7 +6020,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="J165" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -5925,7 +6031,7 @@
     </row>
     <row r="166" spans="2:16">
       <c r="B166" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5934,7 +6040,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="J166" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
@@ -5945,7 +6051,7 @@
     </row>
     <row r="167" spans="2:16">
       <c r="B167" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -5954,7 +6060,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="J167" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
@@ -5965,7 +6071,7 @@
     </row>
     <row r="168" spans="2:16">
       <c r="B168" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -5983,7 +6089,7 @@
     </row>
     <row r="169" spans="2:16">
       <c r="B169" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5992,7 +6098,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="J169" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
@@ -6010,7 +6116,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="J170" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
@@ -6021,7 +6127,7 @@
     </row>
     <row r="171" spans="2:16">
       <c r="B171" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6030,7 +6136,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="J171" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
@@ -6041,7 +6147,7 @@
     </row>
     <row r="172" spans="2:16">
       <c r="B172" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6050,7 +6156,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="J172" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
@@ -6061,7 +6167,7 @@
     </row>
     <row r="173" spans="2:16">
       <c r="B173" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6070,7 +6176,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="J173" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -6081,7 +6187,7 @@
     </row>
     <row r="174" spans="2:16">
       <c r="B174" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6090,7 +6196,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="J174" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
@@ -6108,7 +6214,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="J175" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -6119,7 +6225,7 @@
     </row>
     <row r="176" spans="2:16">
       <c r="B176" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6128,7 +6234,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="J176" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -6139,7 +6245,7 @@
     </row>
     <row r="177" spans="2:16">
       <c r="B177" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6148,7 +6254,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="J177" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -6159,7 +6265,7 @@
     </row>
     <row r="178" spans="2:16">
       <c r="B178" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6168,7 +6274,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="J178" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -6186,7 +6292,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="J179" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -6197,7 +6303,7 @@
     </row>
     <row r="180" spans="2:16">
       <c r="B180" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6206,7 +6312,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="J180" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -6217,7 +6323,7 @@
     </row>
     <row r="181" spans="2:16">
       <c r="B181" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6235,7 +6341,7 @@
     </row>
     <row r="182" spans="2:16">
       <c r="B182" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6244,7 +6350,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="J182" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -6262,7 +6368,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="J183" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -6273,7 +6379,7 @@
     </row>
     <row r="184" spans="2:16">
       <c r="B184" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6282,7 +6388,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="J184" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -6293,7 +6399,7 @@
     </row>
     <row r="185" spans="2:16">
       <c r="B185" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6302,7 +6408,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="J185" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -6313,7 +6419,7 @@
     </row>
     <row r="186" spans="2:16">
       <c r="B186" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6322,7 +6428,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="J186" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -6340,7 +6446,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="J187" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -6351,7 +6457,7 @@
     </row>
     <row r="188" spans="2:16">
       <c r="B188" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -6360,7 +6466,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -6371,7 +6477,7 @@
     </row>
     <row r="189" spans="2:16">
       <c r="B189" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -6380,7 +6486,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="J189" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -6390,9 +6496,7 @@
       <c r="P189" s="2"/>
     </row>
     <row r="190" spans="2:16">
-      <c r="B190" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -6400,7 +6504,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="J190" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -6410,9 +6514,7 @@
       <c r="P190" s="2"/>
     </row>
     <row r="191" spans="2:16">
-      <c r="B191" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -6420,7 +6522,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="J191" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -6438,7 +6540,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="J192" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -6449,7 +6551,7 @@
     </row>
     <row r="193" spans="2:16">
       <c r="B193" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -6458,7 +6560,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="J193" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
@@ -6469,7 +6571,7 @@
     </row>
     <row r="194" spans="2:16">
       <c r="B194" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -6487,7 +6589,7 @@
     </row>
     <row r="195" spans="2:16">
       <c r="B195" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6496,7 +6598,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="J195" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -6507,7 +6609,7 @@
     </row>
     <row r="196" spans="2:16">
       <c r="B196" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6516,7 +6618,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="J196" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -6527,7 +6629,7 @@
     </row>
     <row r="197" spans="2:16">
       <c r="B197" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -6536,7 +6638,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="J197" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
@@ -6547,7 +6649,7 @@
     </row>
     <row r="198" spans="2:16">
       <c r="B198" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -6556,7 +6658,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="J198" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
@@ -6567,7 +6669,7 @@
     </row>
     <row r="199" spans="2:16">
       <c r="B199" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -6576,7 +6678,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="J199" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
@@ -6587,7 +6689,7 @@
     </row>
     <row r="200" spans="2:16">
       <c r="B200" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -6596,7 +6698,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="J200" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -6614,7 +6716,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="J201" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -6625,7 +6727,7 @@
     </row>
     <row r="202" spans="2:16">
       <c r="B202" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -6634,7 +6736,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="J202" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -6645,7 +6747,7 @@
     </row>
     <row r="203" spans="2:16">
       <c r="B203" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -6654,7 +6756,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="J203" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
@@ -6665,7 +6767,7 @@
     </row>
     <row r="204" spans="2:16">
       <c r="B204" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -6674,7 +6776,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="J204" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -6685,7 +6787,7 @@
     </row>
     <row r="205" spans="2:16">
       <c r="B205" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -6694,7 +6796,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="J205" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -6712,7 +6814,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="J206" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -6723,7 +6825,7 @@
     </row>
     <row r="207" spans="2:16">
       <c r="B207" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -6741,7 +6843,7 @@
     </row>
     <row r="208" spans="2:16">
       <c r="B208" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -6750,7 +6852,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="J208" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
@@ -6761,7 +6863,7 @@
     </row>
     <row r="209" spans="2:16">
       <c r="B209" s="3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -6770,7 +6872,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="J209" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -6788,7 +6890,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="J210" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -6799,7 +6901,7 @@
     </row>
     <row r="211" spans="2:16">
       <c r="B211" s="3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -6808,7 +6910,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="J211" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -6819,7 +6921,7 @@
     </row>
     <row r="212" spans="2:16">
       <c r="B212" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -6828,7 +6930,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="J212" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -6839,7 +6941,7 @@
     </row>
     <row r="213" spans="2:16">
       <c r="B213" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -6848,7 +6950,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="J213" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -6866,7 +6968,7 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="J214" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -6877,7 +6979,7 @@
     </row>
     <row r="215" spans="2:16">
       <c r="B215" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -6886,7 +6988,7 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="J215" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -6897,7 +6999,7 @@
     </row>
     <row r="216" spans="2:16">
       <c r="B216" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -6906,7 +7008,7 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="J216" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -6917,7 +7019,7 @@
     </row>
     <row r="217" spans="2:16">
       <c r="B217" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -6926,7 +7028,7 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="J217" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
@@ -6944,7 +7046,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="J218" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -6955,7 +7057,7 @@
     </row>
     <row r="219" spans="2:16">
       <c r="B219" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -6964,7 +7066,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="J219" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
@@ -6975,7 +7077,7 @@
     </row>
     <row r="220" spans="2:16">
       <c r="B220" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -6984,7 +7086,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="J220" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -6995,7 +7097,7 @@
     </row>
     <row r="221" spans="2:16">
       <c r="B221" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7004,7 +7106,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="J221" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
@@ -7015,7 +7117,7 @@
     </row>
     <row r="222" spans="2:16">
       <c r="B222" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7024,7 +7126,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="J222" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
@@ -7051,7 +7153,7 @@
     </row>
     <row r="224" spans="2:16">
       <c r="B224" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -7060,7 +7162,7 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="J224" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -7071,7 +7173,7 @@
     </row>
     <row r="225" spans="2:16">
       <c r="B225" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7080,7 +7182,7 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="J225" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
@@ -7091,7 +7193,7 @@
     </row>
     <row r="226" spans="2:16">
       <c r="B226" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -7100,7 +7202,7 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="J226" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
@@ -7111,7 +7213,7 @@
     </row>
     <row r="227" spans="2:16">
       <c r="B227" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7120,7 +7222,7 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="J227" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
@@ -7131,7 +7233,7 @@
     </row>
     <row r="228" spans="2:16">
       <c r="B228" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -7140,7 +7242,7 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="J228" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
@@ -7151,7 +7253,7 @@
     </row>
     <row r="229" spans="2:16">
       <c r="B229" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -7160,7 +7262,7 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="J229" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
@@ -7171,7 +7273,7 @@
     </row>
     <row r="230" spans="2:16">
       <c r="B230" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -7180,7 +7282,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="J230" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
@@ -7191,7 +7293,7 @@
     </row>
     <row r="231" spans="2:16">
       <c r="B231" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -7200,7 +7302,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="J231" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
@@ -7218,7 +7320,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="J232" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
@@ -7229,7 +7331,7 @@
     </row>
     <row r="233" spans="2:16">
       <c r="B233" s="3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -7238,7 +7340,7 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="J233" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
@@ -7249,7 +7351,7 @@
     </row>
     <row r="234" spans="2:16">
       <c r="B234" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -7258,7 +7360,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="J234" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -7269,7 +7371,7 @@
     </row>
     <row r="235" spans="2:16">
       <c r="B235" s="3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -7278,7 +7380,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="J235" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -7289,7 +7391,7 @@
     </row>
     <row r="236" spans="2:16">
       <c r="B236" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -7298,7 +7400,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="J236" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
@@ -7316,7 +7418,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="J237" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
@@ -7327,7 +7429,7 @@
     </row>
     <row r="238" spans="2:16">
       <c r="B238" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -7336,7 +7438,7 @@
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="J238" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
@@ -7347,7 +7449,7 @@
     </row>
     <row r="239" spans="2:16">
       <c r="B239" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -7365,7 +7467,7 @@
     </row>
     <row r="240" spans="2:16">
       <c r="B240" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -7374,7 +7476,7 @@
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="J240" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
@@ -7392,7 +7494,7 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="J241" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
@@ -7403,7 +7505,7 @@
     </row>
     <row r="242" spans="2:16">
       <c r="B242" s="3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -7412,7 +7514,7 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="J242" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
@@ -7423,7 +7525,7 @@
     </row>
     <row r="243" spans="2:16">
       <c r="B243" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -7432,7 +7534,7 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="J243" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
@@ -7443,7 +7545,7 @@
     </row>
     <row r="244" spans="2:16">
       <c r="B244" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -7452,7 +7554,7 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="J244" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
@@ -7470,7 +7572,7 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="J245" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
@@ -7481,7 +7583,7 @@
     </row>
     <row r="246" spans="2:16">
       <c r="B246" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -7490,7 +7592,7 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="J246" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -7501,7 +7603,7 @@
     </row>
     <row r="247" spans="2:16">
       <c r="B247" s="3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -7510,7 +7612,7 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="J247" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
@@ -7521,7 +7623,7 @@
     </row>
     <row r="248" spans="2:16">
       <c r="B248" s="3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -7530,7 +7632,7 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="J248" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
@@ -7548,7 +7650,7 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="J249" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
@@ -7566,7 +7668,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="J250" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
@@ -7577,7 +7679,7 @@
     </row>
     <row r="251" spans="2:16">
       <c r="B251" s="3" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -7586,7 +7688,7 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="J251" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
@@ -7597,7 +7699,7 @@
     </row>
     <row r="252" spans="2:16">
       <c r="B252" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -7606,7 +7708,7 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="J252" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
@@ -7617,7 +7719,7 @@
     </row>
     <row r="253" spans="2:16">
       <c r="B253" s="3" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -7626,7 +7728,7 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="J253" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
@@ -7637,7 +7739,7 @@
     </row>
     <row r="254" spans="2:16">
       <c r="B254" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -7646,7 +7748,7 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="J254" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
@@ -7657,7 +7759,7 @@
     </row>
     <row r="255" spans="2:16">
       <c r="B255" s="3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -7675,7 +7777,7 @@
     </row>
     <row r="256" spans="2:16">
       <c r="B256" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -7684,7 +7786,7 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="J256" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
@@ -7695,7 +7797,7 @@
     </row>
     <row r="257" spans="2:16">
       <c r="B257" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -7704,7 +7806,7 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="J257" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
@@ -7715,7 +7817,7 @@
     </row>
     <row r="258" spans="2:16">
       <c r="B258" s="3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -7724,7 +7826,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="J258" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
@@ -7742,7 +7844,7 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="J259" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
@@ -7753,7 +7855,7 @@
     </row>
     <row r="260" spans="2:16">
       <c r="B260" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -7762,7 +7864,7 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="J260" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
@@ -7773,7 +7875,7 @@
     </row>
     <row r="261" spans="2:16">
       <c r="B261" s="3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -7782,7 +7884,7 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="J261" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
@@ -7793,7 +7895,7 @@
     </row>
     <row r="262" spans="2:16">
       <c r="B262" s="3" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -7802,7 +7904,7 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="J262" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
@@ -7813,7 +7915,7 @@
     </row>
     <row r="263" spans="2:16">
       <c r="B263" s="3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -7822,7 +7924,7 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="J263" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
@@ -7833,7 +7935,7 @@
     </row>
     <row r="264" spans="2:16">
       <c r="B264" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -7842,7 +7944,7 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="J264" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
@@ -7853,7 +7955,7 @@
     </row>
     <row r="265" spans="2:16">
       <c r="B265" s="3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -7862,7 +7964,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="J265" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
@@ -7873,7 +7975,7 @@
     </row>
     <row r="266" spans="2:16">
       <c r="B266" s="3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -7882,7 +7984,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="J266" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
@@ -7893,7 +7995,7 @@
     </row>
     <row r="267" spans="2:16">
       <c r="B267" s="3" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -7902,7 +8004,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="J267" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
@@ -7929,7 +8031,7 @@
     </row>
     <row r="269" spans="2:16">
       <c r="B269" s="3" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -7938,7 +8040,7 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="J269" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
@@ -7949,7 +8051,7 @@
     </row>
     <row r="270" spans="2:16">
       <c r="B270" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -7958,7 +8060,7 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="J270" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
@@ -7969,7 +8071,7 @@
     </row>
     <row r="271" spans="2:16">
       <c r="B271" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -7978,7 +8080,7 @@
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="J271" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
@@ -7989,7 +8091,7 @@
     </row>
     <row r="272" spans="2:16">
       <c r="B272" s="3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -7998,7 +8100,7 @@
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="J272" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
@@ -8009,7 +8111,7 @@
     </row>
     <row r="273" spans="2:16">
       <c r="B273" s="3" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -8018,7 +8120,7 @@
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="J273" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
@@ -8029,7 +8131,7 @@
     </row>
     <row r="274" spans="2:16">
       <c r="B274" s="3" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -8038,7 +8140,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="J274" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
@@ -8049,7 +8151,7 @@
     </row>
     <row r="275" spans="2:16">
       <c r="B275" s="3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -8058,7 +8160,7 @@
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="J275" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
@@ -8069,7 +8171,7 @@
     </row>
     <row r="276" spans="2:16">
       <c r="B276" s="3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -8078,7 +8180,7 @@
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="J276" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
@@ -8096,7 +8198,7 @@
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="J277" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
@@ -8107,7 +8209,7 @@
     </row>
     <row r="278" spans="2:16">
       <c r="B278" s="3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -8116,7 +8218,7 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="J278" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
@@ -8127,7 +8229,7 @@
     </row>
     <row r="279" spans="2:16">
       <c r="B279" s="3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -8136,7 +8238,7 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="J279" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
@@ -8147,7 +8249,7 @@
     </row>
     <row r="280" spans="2:16">
       <c r="B280" s="3" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -8156,7 +8258,7 @@
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="J280" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
@@ -8167,7 +8269,7 @@
     </row>
     <row r="281" spans="2:16">
       <c r="B281" s="3" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -8185,7 +8287,7 @@
     </row>
     <row r="282" spans="2:16">
       <c r="B282" s="3" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -8194,7 +8296,7 @@
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="J282" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
@@ -8205,7 +8307,7 @@
     </row>
     <row r="283" spans="2:16">
       <c r="B283" s="3" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -8214,7 +8316,7 @@
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="J283" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
@@ -8225,7 +8327,7 @@
     </row>
     <row r="284" spans="2:16">
       <c r="B284" s="3" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -8234,7 +8336,7 @@
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="J284" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
@@ -8245,7 +8347,7 @@
     </row>
     <row r="285" spans="2:16">
       <c r="B285" s="3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -8254,7 +8356,7 @@
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="J285" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
@@ -8263,9 +8365,16 @@
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
     </row>
-    <row r="286" spans="10:16">
+    <row r="286" spans="2:16">
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
       <c r="J286" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
@@ -8274,9 +8383,18 @@
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
     </row>
-    <row r="287" spans="10:16">
+    <row r="287" spans="2:16">
+      <c r="B287" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
       <c r="J287" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
@@ -8285,9 +8403,18 @@
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
     </row>
-    <row r="288" spans="10:16">
+    <row r="288" spans="2:16">
+      <c r="B288" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
       <c r="J288" s="2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
@@ -8296,9 +8423,18 @@
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
     </row>
-    <row r="289" spans="10:16">
+    <row r="289" spans="2:16">
+      <c r="B289" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
       <c r="J289" s="2" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
@@ -8307,9 +8443,18 @@
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
     </row>
-    <row r="290" spans="10:16">
+    <row r="290" spans="2:16">
+      <c r="B290" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
       <c r="J290" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
@@ -8318,9 +8463,16 @@
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
     </row>
-    <row r="291" spans="10:16">
+    <row r="291" spans="2:16">
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2"/>
       <c r="J291" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
@@ -8329,9 +8481,18 @@
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
     </row>
-    <row r="292" spans="10:16">
+    <row r="292" spans="2:16">
+      <c r="B292" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
       <c r="J292" s="2" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
@@ -8340,9 +8501,18 @@
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
     </row>
-    <row r="293" spans="10:16">
+    <row r="293" spans="2:16">
+      <c r="B293" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
       <c r="J293" s="2" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
@@ -8351,7 +8521,16 @@
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
     </row>
-    <row r="294" spans="10:16">
+    <row r="294" spans="2:16">
+      <c r="B294" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
@@ -8362,7 +8541,7 @@
     </row>
     <row r="295" spans="10:16">
       <c r="J295" s="2" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
@@ -8371,9 +8550,18 @@
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
     </row>
-    <row r="296" spans="10:16">
+    <row r="296" spans="2:16">
+      <c r="B296" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
       <c r="J296" s="2" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
@@ -8382,9 +8570,18 @@
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
     </row>
-    <row r="297" spans="10:16">
+    <row r="297" spans="2:16">
+      <c r="B297" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
       <c r="J297" s="2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -8393,9 +8590,18 @@
       <c r="O297" s="2"/>
       <c r="P297" s="2"/>
     </row>
-    <row r="298" spans="10:16">
+    <row r="298" spans="2:16">
+      <c r="B298" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
       <c r="J298" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
@@ -8406,7 +8612,7 @@
     </row>
     <row r="299" spans="10:16">
       <c r="J299" s="2" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
@@ -8415,9 +8621,18 @@
       <c r="O299" s="2"/>
       <c r="P299" s="2"/>
     </row>
-    <row r="300" spans="10:16">
+    <row r="300" spans="2:16">
+      <c r="B300" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
       <c r="J300" s="2" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
@@ -8426,9 +8641,18 @@
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
     </row>
-    <row r="301" spans="10:16">
+    <row r="301" spans="2:16">
+      <c r="B301" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
       <c r="J301" s="2" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
@@ -8437,9 +8661,18 @@
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
     </row>
-    <row r="302" spans="10:16">
+    <row r="302" spans="2:16">
+      <c r="B302" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
       <c r="J302" s="2" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
@@ -8450,7 +8683,7 @@
     </row>
     <row r="303" spans="10:16">
       <c r="J303" s="2" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
@@ -8461,7 +8694,7 @@
     </row>
     <row r="304" spans="10:16">
       <c r="J304" s="2" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
@@ -8470,9 +8703,18 @@
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
     </row>
-    <row r="305" spans="10:16">
+    <row r="305" spans="2:16">
+      <c r="B305" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
       <c r="J305" s="2" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
@@ -8481,9 +8723,18 @@
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
     </row>
-    <row r="306" spans="10:16">
+    <row r="306" spans="2:16">
+      <c r="B306" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
       <c r="J306" s="2" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
@@ -8492,9 +8743,18 @@
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
     </row>
-    <row r="307" spans="10:16">
+    <row r="307" spans="2:16">
+      <c r="B307" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
       <c r="J307" s="2" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
@@ -8503,9 +8763,18 @@
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
     </row>
-    <row r="308" spans="10:16">
+    <row r="308" spans="2:16">
+      <c r="B308" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
       <c r="J308" s="2" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
@@ -8514,9 +8783,16 @@
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
     </row>
-    <row r="309" spans="10:16">
+    <row r="309" spans="2:16">
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
       <c r="J309" s="2" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
@@ -8525,7 +8801,16 @@
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
     </row>
-    <row r="310" spans="10:16">
+    <row r="310" spans="2:16">
+      <c r="B310" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
@@ -8534,9 +8819,18 @@
       <c r="O310" s="3"/>
       <c r="P310" s="3"/>
     </row>
-    <row r="311" spans="10:16">
+    <row r="311" spans="2:16">
+      <c r="B311" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
       <c r="J311" s="2" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
@@ -8545,9 +8839,18 @@
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
     </row>
-    <row r="312" spans="10:16">
+    <row r="312" spans="2:16">
+      <c r="B312" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
       <c r="J312" s="2" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
@@ -8558,7 +8861,7 @@
     </row>
     <row r="313" spans="10:16">
       <c r="J313" s="2" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
@@ -8567,9 +8870,18 @@
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
     </row>
-    <row r="314" spans="10:16">
+    <row r="314" spans="2:16">
+      <c r="B314" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
       <c r="J314" s="2" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
@@ -8578,9 +8890,18 @@
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
     </row>
-    <row r="315" spans="10:16">
+    <row r="315" spans="2:16">
+      <c r="B315" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
       <c r="J315" s="2" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
@@ -8589,9 +8910,18 @@
       <c r="O315" s="2"/>
       <c r="P315" s="2"/>
     </row>
-    <row r="316" spans="10:16">
+    <row r="316" spans="2:16">
+      <c r="B316" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
       <c r="J316" s="2" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
@@ -8602,7 +8932,7 @@
     </row>
     <row r="317" spans="10:16">
       <c r="J317" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
@@ -8611,9 +8941,18 @@
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
     </row>
-    <row r="318" spans="10:16">
+    <row r="318" spans="2:16">
+      <c r="B318" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
       <c r="J318" s="2" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
@@ -8622,9 +8961,18 @@
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
     </row>
-    <row r="319" spans="10:16">
+    <row r="319" spans="2:16">
+      <c r="B319" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
       <c r="J319" s="2" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
@@ -8633,9 +8981,18 @@
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
     </row>
-    <row r="320" spans="10:16">
+    <row r="320" spans="2:16">
+      <c r="B320" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
       <c r="J320" s="2" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
@@ -8646,7 +9003,7 @@
     </row>
     <row r="321" spans="10:16">
       <c r="J321" s="2" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
@@ -8657,7 +9014,7 @@
     </row>
     <row r="322" spans="10:16">
       <c r="J322" s="2" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
@@ -8668,7 +9025,7 @@
     </row>
     <row r="323" spans="10:16">
       <c r="J323" s="2" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
@@ -8679,7 +9036,7 @@
     </row>
     <row r="324" spans="10:16">
       <c r="J324" s="2" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
@@ -8690,7 +9047,7 @@
     </row>
     <row r="325" spans="10:16">
       <c r="J325" s="2" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
@@ -8710,7 +9067,7 @@
     </row>
     <row r="327" spans="10:16">
       <c r="J327" s="2" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
@@ -8721,7 +9078,7 @@
     </row>
     <row r="328" spans="10:16">
       <c r="J328" s="2" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
@@ -8732,7 +9089,7 @@
     </row>
     <row r="329" spans="10:16">
       <c r="J329" s="2" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
@@ -8743,7 +9100,7 @@
     </row>
     <row r="330" spans="10:16">
       <c r="J330" s="2" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
@@ -8754,7 +9111,7 @@
     </row>
     <row r="331" spans="10:16">
       <c r="J331" s="2" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
@@ -8765,7 +9122,7 @@
     </row>
     <row r="332" spans="10:16">
       <c r="J332" s="2" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
@@ -8776,7 +9133,7 @@
     </row>
     <row r="333" spans="10:16">
       <c r="J333" s="2" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
@@ -8787,7 +9144,7 @@
     </row>
     <row r="334" spans="10:16">
       <c r="J334" s="2" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
@@ -8798,7 +9155,7 @@
     </row>
     <row r="335" spans="10:16">
       <c r="J335" s="2" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -8809,7 +9166,7 @@
     </row>
     <row r="336" spans="10:16">
       <c r="J336" s="2" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -8820,7 +9177,7 @@
     </row>
     <row r="337" spans="10:16">
       <c r="J337" s="2" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -8831,7 +9188,7 @@
     </row>
     <row r="338" spans="10:16">
       <c r="J338" s="2" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
@@ -8842,7 +9199,7 @@
     </row>
     <row r="339" spans="10:16">
       <c r="J339" s="2" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
@@ -8853,7 +9210,7 @@
     </row>
     <row r="340" spans="10:16">
       <c r="J340" s="2" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
@@ -8864,7 +9221,7 @@
     </row>
     <row r="341" spans="10:16">
       <c r="J341" s="2" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
@@ -8875,7 +9232,7 @@
     </row>
     <row r="343" spans="10:16">
       <c r="J343" s="3" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
@@ -8886,7 +9243,7 @@
     </row>
     <row r="344" spans="10:16">
       <c r="J344" s="3" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
@@ -8897,7 +9254,7 @@
     </row>
     <row r="345" spans="10:16">
       <c r="J345" s="3" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
@@ -8908,7 +9265,7 @@
     </row>
     <row r="346" spans="10:16">
       <c r="J346" s="3" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
@@ -8919,7 +9276,7 @@
     </row>
     <row r="347" spans="10:16">
       <c r="J347" s="3" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
@@ -8930,7 +9287,7 @@
     </row>
     <row r="348" spans="10:16">
       <c r="J348" s="3" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
@@ -8941,7 +9298,7 @@
     </row>
     <row r="349" spans="10:16">
       <c r="J349" s="3" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
@@ -8952,7 +9309,7 @@
     </row>
     <row r="350" spans="10:16">
       <c r="J350" s="3" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
@@ -8963,7 +9320,7 @@
     </row>
     <row r="351" spans="10:16">
       <c r="J351" s="3" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
@@ -8974,7 +9331,7 @@
     </row>
     <row r="352" spans="10:16">
       <c r="J352" s="3" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
@@ -8985,7 +9342,7 @@
     </row>
     <row r="353" spans="10:16">
       <c r="J353" s="3" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
@@ -8996,7 +9353,7 @@
     </row>
     <row r="354" spans="10:16">
       <c r="J354" s="3" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
@@ -9007,7 +9364,7 @@
     </row>
     <row r="356" spans="10:16">
       <c r="J356" s="3" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
@@ -9018,7 +9375,7 @@
     </row>
     <row r="357" spans="10:16">
       <c r="J357" s="3" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
@@ -9029,7 +9386,7 @@
     </row>
     <row r="358" spans="10:16">
       <c r="J358" s="3" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
@@ -9040,7 +9397,7 @@
     </row>
     <row r="359" spans="10:16">
       <c r="J359" s="3" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
@@ -9051,7 +9408,7 @@
     </row>
     <row r="360" spans="10:16">
       <c r="J360" s="3" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
@@ -9062,7 +9419,7 @@
     </row>
     <row r="361" spans="10:16">
       <c r="J361" s="3" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
@@ -9073,7 +9430,7 @@
     </row>
     <row r="362" spans="10:16">
       <c r="J362" s="3" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
@@ -9084,7 +9441,7 @@
     </row>
     <row r="363" spans="10:16">
       <c r="J363" s="3" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
@@ -9095,7 +9452,7 @@
     </row>
     <row r="364" spans="10:16">
       <c r="J364" s="3" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
@@ -9106,7 +9463,7 @@
     </row>
     <row r="365" spans="10:16">
       <c r="J365" s="3" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
@@ -9117,7 +9474,7 @@
     </row>
     <row r="366" spans="10:16">
       <c r="J366" s="3" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
@@ -9128,7 +9485,7 @@
     </row>
     <row r="367" spans="10:16">
       <c r="J367" s="3" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
@@ -9156,7 +9513,7 @@
       <c r="P373" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="611">
+  <mergeCells count="640">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="B2:H2"/>
@@ -9686,40 +10043,69 @@
     <mergeCell ref="J284:P284"/>
     <mergeCell ref="B285:H285"/>
     <mergeCell ref="J285:P285"/>
+    <mergeCell ref="B286:H286"/>
     <mergeCell ref="J286:P286"/>
+    <mergeCell ref="B287:H287"/>
     <mergeCell ref="J287:P287"/>
+    <mergeCell ref="B288:H288"/>
     <mergeCell ref="J288:P288"/>
+    <mergeCell ref="B289:H289"/>
     <mergeCell ref="J289:P289"/>
+    <mergeCell ref="B290:H290"/>
     <mergeCell ref="J290:P290"/>
+    <mergeCell ref="B291:H291"/>
     <mergeCell ref="J291:P291"/>
+    <mergeCell ref="B292:H292"/>
     <mergeCell ref="J292:P292"/>
+    <mergeCell ref="B293:H293"/>
     <mergeCell ref="J293:P293"/>
+    <mergeCell ref="B294:H294"/>
     <mergeCell ref="J294:P294"/>
     <mergeCell ref="J295:P295"/>
+    <mergeCell ref="B296:H296"/>
     <mergeCell ref="J296:P296"/>
+    <mergeCell ref="B297:H297"/>
     <mergeCell ref="J297:P297"/>
+    <mergeCell ref="B298:H298"/>
     <mergeCell ref="J298:P298"/>
     <mergeCell ref="J299:P299"/>
+    <mergeCell ref="B300:H300"/>
     <mergeCell ref="J300:P300"/>
+    <mergeCell ref="B301:H301"/>
     <mergeCell ref="J301:P301"/>
+    <mergeCell ref="B302:H302"/>
     <mergeCell ref="J302:P302"/>
     <mergeCell ref="J303:P303"/>
     <mergeCell ref="J304:P304"/>
+    <mergeCell ref="B305:H305"/>
     <mergeCell ref="J305:P305"/>
+    <mergeCell ref="B306:H306"/>
     <mergeCell ref="J306:P306"/>
+    <mergeCell ref="B307:H307"/>
     <mergeCell ref="J307:P307"/>
+    <mergeCell ref="B308:H308"/>
     <mergeCell ref="J308:P308"/>
+    <mergeCell ref="B309:H309"/>
     <mergeCell ref="J309:P309"/>
+    <mergeCell ref="B310:H310"/>
     <mergeCell ref="J310:P310"/>
+    <mergeCell ref="B311:H311"/>
     <mergeCell ref="J311:P311"/>
+    <mergeCell ref="B312:H312"/>
     <mergeCell ref="J312:P312"/>
     <mergeCell ref="J313:P313"/>
+    <mergeCell ref="B314:H314"/>
     <mergeCell ref="J314:P314"/>
+    <mergeCell ref="B315:H315"/>
     <mergeCell ref="J315:P315"/>
+    <mergeCell ref="B316:H316"/>
     <mergeCell ref="J316:P316"/>
     <mergeCell ref="J317:P317"/>
+    <mergeCell ref="B318:H318"/>
     <mergeCell ref="J318:P318"/>
+    <mergeCell ref="B319:H319"/>
     <mergeCell ref="J319:P319"/>
+    <mergeCell ref="B320:H320"/>
     <mergeCell ref="J320:P320"/>
     <mergeCell ref="J321:P321"/>
     <mergeCell ref="J322:P322"/>
@@ -9769,6 +10155,12 @@
     <mergeCell ref="J372:P372"/>
     <mergeCell ref="J373:P373"/>
   </mergeCells>
+  <conditionalFormatting sqref="A$1:H$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J$1:P$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_create.xlsx
+++ b/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_create.xlsx
@@ -7,14 +7,222 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="create" sheetId="3" r:id="rId1"/>
+    <sheet name="create(旧)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666">
+  <si>
+    <t>让{person}[在|于]{time}[之前|之后][要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}[之前|之后][要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[在|于]{time}[之前|之后][要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>邀请{person}[在|于]{time}[之前|之后][要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>叫上{person}[在|于]{time}[之前|之后][要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>告诉{person}[在|于]{time}[之前|之后][要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>提醒{person}[在|于]{time}[之前|之后][要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>和{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>邀请{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>叫上{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>告诉{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>提醒{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>安排{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>通知{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>邀请{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>和{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>告诉{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>提醒{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{person}[在|于]{time}[之前|之后](要|去|来){schedule}</t>
+  </si>
+  <si>
+    <t>{person}[在|于]{time}[之前|之后]一起{schedule}</t>
+  </si>
+  <si>
+    <t>{person}[在|于]{time}[之前|之后](完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]让{person}[要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]安排{person}[要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]通知{person}[要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]邀请{person}[要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]和{person}[要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]告诉{person}[要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]提醒{person}[要|去|来]{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]和{person}一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]安排{person}一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]通知{person}一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]邀请{person}一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]叫上{person}一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]告诉{person}一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]提醒{person}一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]让{person}(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]安排{person}(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]通知{person}(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]邀请{person}(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]叫上{person}(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]告诉{person}(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]提醒{person}(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]{person}(要|去|来){schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]{person}(要|去|来)一起{schedule}</t>
+  </si>
+  <si>
+    <t>{time}[之前|之后]{person}(要|去|来)(完成|实现|结束|搞定){schedule}</t>
+  </si>
+  <si>
+    <t>让{person}[要|去|来]{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>安排{person}[要|去|来]{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>通知{person}[要|去|来]{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>邀请{person}[要|去|来]{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>叫上{person}[要|去|来]{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>告诉{person}[要|去|来]{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>提醒{person}[要|去|来]{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>和{person}一起{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>安排{person}一起{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>通知{person}一起{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>邀请{person}一起{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>叫上{person}一起{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>告诉{person}一起{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>提醒{person}一起{schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>让{person}(完成|实现|结束|搞定){schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>安排{person}(完成|实现|结束|搞定){schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>通知{person}(完成|实现|结束|搞定){schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>邀请{person}(完成|实现|结束|搞定){schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>和{person}(完成|实现|结束|搞定){schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>告诉{person}(完成|实现|结束|搞定){schedule}[在|于]{time}[之前|之后]</t>
+  </si>
+  <si>
+    <t>提醒{person}(完成|实现|结束|搞定){schedule}[在|于]{time}[之前|之后]</t>
+  </si>
   <si>
     <t>(请|邀){person}[在|于]{time}(要|去|做|来){schedule}</t>
   </si>
@@ -1812,10 +2020,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1827,7 +2035,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1835,7 +2043,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1851,13 +2059,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1879,6 +2080,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1887,44 +2096,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1940,9 +2120,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1954,17 +2142,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1976,6 +2184,60 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1991,25 +2253,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,7 +2319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2039,43 +2331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,79 +2349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2170,6 +2378,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2188,7 +2450,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2211,62 +2473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2278,10 +2486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2290,133 +2498,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2793,10 +3001,1208 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:H81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B81:H81"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:H1">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:H6">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:H9">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:H10">
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:H11">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:H12">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:H13">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:H14">
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:H17">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:H18">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:H19">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:H20">
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:H21">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:H22">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:H23">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:H25">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:H26">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:H27">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:H29">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:H30">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:H31">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:H32">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:H33">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:H34">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:H35">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:H37">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:H38">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:H39">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:H40">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:H41">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:H42">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:H43">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:H44">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:H45">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:H46">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:H47">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:H48">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:H49">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:H50">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:H51">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:H52">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:H54">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:H55">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:H56">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:H57">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:H58">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:H59">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:H60">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:H61">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:H62">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:H63">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:H64">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:H65">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:H67">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:H68">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:H69">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:H70">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:H71">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:H72">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:H75">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:H76">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:H77">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:H78">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:H79">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:H80">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:H81">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:H8">
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:H16">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:H24 B28:H28 B53:H53 B66:H66">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:H74">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:P373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51:P51"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2819,7 +4225,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="2:16">
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2828,7 +4234,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2839,7 +4245,7 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="2:16">
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2848,7 +4254,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2859,7 +4265,7 @@
     </row>
     <row r="3" ht="16" customHeight="1" spans="2:16">
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2868,7 +4274,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2879,7 +4285,7 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2888,7 +4294,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2906,7 +4312,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2917,7 +4323,7 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2926,7 +4332,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2937,7 +4343,7 @@
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2946,7 +4352,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2957,7 +4363,7 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2966,7 +4372,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2977,7 +4383,7 @@
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2986,7 +4392,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2997,7 +4403,7 @@
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3006,7 +4412,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -3017,7 +4423,7 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3026,7 +4432,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -3037,7 +4443,7 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3046,7 +4452,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3057,7 +4463,7 @@
     </row>
     <row r="13" customFormat="1" spans="2:16">
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3082,7 +4488,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -3093,7 +4499,7 @@
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3102,7 +4508,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -3113,7 +4519,7 @@
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3122,7 +4528,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -3133,7 +4539,7 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3142,7 +4548,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -3153,7 +4559,7 @@
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3162,7 +4568,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -3180,7 +4586,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -3191,7 +4597,7 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3200,7 +4606,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3211,7 +4617,7 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3220,7 +4626,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3231,7 +4637,7 @@
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3240,7 +4646,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3258,7 +4664,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3269,7 +4675,7 @@
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3278,7 +4684,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3289,7 +4695,7 @@
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3298,7 +4704,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -3309,7 +4715,7 @@
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3318,7 +4724,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -3336,7 +4742,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3347,7 +4753,7 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3356,7 +4762,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="J28" s="3" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -3367,7 +4773,7 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3376,7 +4782,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -3387,7 +4793,7 @@
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3396,7 +4802,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3414,7 +4820,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3425,7 +4831,7 @@
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3434,7 +4840,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3445,7 +4851,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3454,7 +4860,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3465,7 +4871,7 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3474,7 +4880,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3485,7 +4891,7 @@
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3494,7 +4900,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3512,7 +4918,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3523,7 +4929,7 @@
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3532,7 +4938,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3543,7 +4949,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="3" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3561,7 +4967,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="3" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3570,7 +4976,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="J39" s="3" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3581,7 +4987,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3590,7 +4996,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="J40" s="3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3601,7 +5007,7 @@
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3610,7 +5016,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="J41" s="3" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3621,7 +5027,7 @@
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3630,7 +5036,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="J42" s="3" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3641,7 +5047,7 @@
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="3" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3650,7 +5056,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="J43" s="3" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3661,7 +5067,7 @@
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3670,7 +5076,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3688,7 +5094,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3699,7 +5105,7 @@
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="3" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3708,7 +5114,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3719,7 +5125,7 @@
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="3" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3728,7 +5134,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3739,7 +5145,7 @@
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="3" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3748,7 +5154,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3759,7 +5165,7 @@
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="3" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3768,7 +5174,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3786,7 +5192,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3797,7 +5203,7 @@
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="3" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3815,7 +5221,7 @@
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3824,7 +5230,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3835,7 +5241,7 @@
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="3" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3844,7 +5250,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3862,7 +5268,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3873,7 +5279,7 @@
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="3" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -3882,7 +5288,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="J55" s="3" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3893,7 +5299,7 @@
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3902,7 +5308,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="J56" s="3" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3913,7 +5319,7 @@
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -3922,7 +5328,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="J57" s="3" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3940,7 +5346,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="J58" s="3" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3951,7 +5357,7 @@
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3960,7 +5366,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="J59" s="3" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3971,7 +5377,7 @@
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="3" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3980,7 +5386,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="J60" s="3" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3991,7 +5397,7 @@
     </row>
     <row r="61" spans="2:16">
       <c r="B61" s="3" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4016,7 +5422,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="J62" s="3" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4034,7 +5440,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="J63" s="3" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -4045,7 +5451,7 @@
     </row>
     <row r="64" spans="2:16">
       <c r="B64" s="3" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4054,7 +5460,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="J64" s="3" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4065,7 +5471,7 @@
     </row>
     <row r="65" spans="2:16">
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4074,7 +5480,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="J65" s="3" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4085,7 +5491,7 @@
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="3" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4094,7 +5500,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="J66" s="3" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4105,7 +5511,7 @@
     </row>
     <row r="67" spans="2:16">
       <c r="B67" s="3" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4114,7 +5520,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="J67" s="3" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4132,7 +5538,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4143,7 +5549,7 @@
     </row>
     <row r="69" spans="2:16">
       <c r="B69" s="3" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4152,7 +5558,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="J69" s="3" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4163,7 +5569,7 @@
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="3" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4172,7 +5578,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="J70" s="3" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4183,7 +5589,7 @@
     </row>
     <row r="71" spans="2:16">
       <c r="B71" s="3" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4192,7 +5598,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="J71" s="3" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4203,7 +5609,7 @@
     </row>
     <row r="72" spans="2:16">
       <c r="B72" s="3" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4212,7 +5618,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="J72" s="3" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4223,7 +5629,7 @@
     </row>
     <row r="73" spans="2:16">
       <c r="B73" s="3" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4232,7 +5638,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="J73" s="3" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4243,7 +5649,7 @@
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="3" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4252,7 +5658,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="J74" s="3" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4263,7 +5669,7 @@
     </row>
     <row r="75" spans="2:16">
       <c r="B75" s="3" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4272,7 +5678,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="J75" s="3" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -4283,7 +5689,7 @@
     </row>
     <row r="76" spans="2:16">
       <c r="B76" s="3" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4292,7 +5698,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="J76" s="3" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -4310,7 +5716,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="J77" s="3" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -4321,7 +5727,7 @@
     </row>
     <row r="78" spans="2:16">
       <c r="B78" s="3" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4330,7 +5736,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="J78" s="3" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -4341,7 +5747,7 @@
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="3" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4350,7 +5756,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="J79" s="3" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -4361,7 +5767,7 @@
     </row>
     <row r="80" spans="2:16">
       <c r="B80" s="3" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4379,7 +5785,7 @@
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="3" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4404,7 +5810,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="J82" s="2" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4415,7 +5821,7 @@
     </row>
     <row r="83" spans="2:16">
       <c r="B83" s="3" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4424,7 +5830,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="J83" s="2" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4435,7 +5841,7 @@
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="3" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4444,7 +5850,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="J84" s="2" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4455,7 +5861,7 @@
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="3" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4464,7 +5870,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="J85" s="2" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4482,7 +5888,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="J86" s="2" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4493,7 +5899,7 @@
     </row>
     <row r="87" spans="2:16">
       <c r="B87" s="3" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4502,7 +5908,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="J87" s="2" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4513,7 +5919,7 @@
     </row>
     <row r="88" spans="2:16">
       <c r="B88" s="3" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4522,7 +5928,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="J88" s="2" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4533,7 +5939,7 @@
     </row>
     <row r="89" spans="2:16">
       <c r="B89" s="3" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4542,7 +5948,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="J89" s="2" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -4560,7 +5966,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="J90" s="2" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4571,7 +5977,7 @@
     </row>
     <row r="91" spans="2:16">
       <c r="B91" s="3" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4580,7 +5986,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="J91" s="2" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4591,7 +5997,7 @@
     </row>
     <row r="92" spans="2:16">
       <c r="B92" s="3" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4600,7 +6006,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="J92" s="2" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4611,7 +6017,7 @@
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="3" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4620,7 +6026,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="J93" s="2" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -4647,7 +6053,7 @@
     </row>
     <row r="95" spans="2:16">
       <c r="B95" s="3" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4656,7 +6062,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="J95" s="2" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -4667,7 +6073,7 @@
     </row>
     <row r="96" spans="2:16">
       <c r="B96" s="3" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4676,7 +6082,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="J96" s="2" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -4687,7 +6093,7 @@
     </row>
     <row r="97" spans="2:16">
       <c r="B97" s="3" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4696,7 +6102,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="J97" s="2" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -4707,7 +6113,7 @@
     </row>
     <row r="98" spans="2:16">
       <c r="B98" s="3" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4716,7 +6122,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="J98" s="2" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -4734,7 +6140,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="J99" s="2" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -4745,7 +6151,7 @@
     </row>
     <row r="100" spans="2:16">
       <c r="B100" s="3" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4754,7 +6160,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="J100" s="2" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -4765,7 +6171,7 @@
     </row>
     <row r="101" spans="2:16">
       <c r="B101" s="3" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4774,7 +6180,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="J101" s="2" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -4785,7 +6191,7 @@
     </row>
     <row r="102" spans="2:16">
       <c r="B102" s="3" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4794,7 +6200,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="J102" s="2" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -4805,7 +6211,7 @@
     </row>
     <row r="103" spans="2:16">
       <c r="B103" s="3" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4814,7 +6220,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="J103" s="2" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -4825,7 +6231,7 @@
     </row>
     <row r="104" spans="2:16">
       <c r="B104" s="3" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4834,7 +6240,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="J104" s="2" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -4845,7 +6251,7 @@
     </row>
     <row r="105" spans="2:16">
       <c r="B105" s="3" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4854,7 +6260,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="J105" s="2" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -4865,7 +6271,7 @@
     </row>
     <row r="106" spans="2:16">
       <c r="B106" s="3" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4874,7 +6280,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="J106" s="2" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -4885,7 +6291,7 @@
     </row>
     <row r="107" spans="2:16">
       <c r="B107" s="3" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4910,7 +6316,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="J108" s="2" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
@@ -4928,7 +6334,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="J109" s="2" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
@@ -4939,7 +6345,7 @@
     </row>
     <row r="110" spans="2:16">
       <c r="B110" s="3" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4948,7 +6354,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="J110" s="2" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -4959,7 +6365,7 @@
     </row>
     <row r="111" spans="2:16">
       <c r="B111" s="3" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4968,7 +6374,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="J111" s="2" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -4979,7 +6385,7 @@
     </row>
     <row r="112" spans="2:16">
       <c r="B112" s="3" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4988,7 +6394,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="J112" s="2" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
@@ -5006,7 +6412,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="J113" s="2" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -5017,7 +6423,7 @@
     </row>
     <row r="114" spans="2:16">
       <c r="B114" s="3" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -5026,7 +6432,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="J114" s="2" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -5037,7 +6443,7 @@
     </row>
     <row r="115" spans="2:16">
       <c r="B115" s="3" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -5046,7 +6452,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="J115" s="2" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -5057,7 +6463,7 @@
     </row>
     <row r="116" spans="2:16">
       <c r="B116" s="3" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -5066,7 +6472,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="J116" s="2" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -5084,7 +6490,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="J117" s="2" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -5095,7 +6501,7 @@
     </row>
     <row r="118" spans="2:16">
       <c r="B118" s="3" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -5104,7 +6510,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="J118" s="2" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -5115,7 +6521,7 @@
     </row>
     <row r="119" spans="2:16">
       <c r="B119" s="3" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -5124,7 +6530,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="J119" s="2" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -5135,7 +6541,7 @@
     </row>
     <row r="120" spans="2:16">
       <c r="B120" s="3" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -5160,7 +6566,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="J121" s="2" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -5171,7 +6577,7 @@
     </row>
     <row r="122" spans="2:16">
       <c r="B122" s="3" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -5180,7 +6586,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="J122" s="2" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -5191,7 +6597,7 @@
     </row>
     <row r="123" spans="2:16">
       <c r="B123" s="3" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -5200,7 +6606,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="J123" s="2" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -5211,7 +6617,7 @@
     </row>
     <row r="124" spans="2:16">
       <c r="B124" s="3" t="s">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -5220,7 +6626,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="J124" s="2" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -5238,7 +6644,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="J125" s="2" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -5249,7 +6655,7 @@
     </row>
     <row r="126" spans="2:16">
       <c r="B126" s="2" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5258,7 +6664,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
@@ -5269,7 +6675,7 @@
     </row>
     <row r="127" spans="2:16">
       <c r="B127" s="3" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -5278,7 +6684,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="J127" s="2" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
@@ -5289,7 +6695,7 @@
     </row>
     <row r="128" spans="2:16">
       <c r="B128" s="3" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -5298,7 +6704,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="J128" s="2" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
@@ -5309,7 +6715,7 @@
     </row>
     <row r="129" spans="2:16">
       <c r="B129" s="3" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -5318,7 +6724,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="J129" s="2" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
@@ -5336,7 +6742,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="J130" s="2" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
@@ -5347,7 +6753,7 @@
     </row>
     <row r="131" spans="2:16">
       <c r="B131" s="3" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5356,7 +6762,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="J131" s="2" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
@@ -5367,7 +6773,7 @@
     </row>
     <row r="132" spans="2:16">
       <c r="B132" s="3" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5376,7 +6782,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="J132" s="2" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
@@ -5387,7 +6793,7 @@
     </row>
     <row r="133" spans="2:16">
       <c r="B133" s="3" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5396,7 +6802,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="J133" s="2" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
@@ -5407,7 +6813,7 @@
     </row>
     <row r="134" spans="2:16">
       <c r="B134" s="3" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5416,7 +6822,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="J134" s="2" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
@@ -5427,7 +6833,7 @@
     </row>
     <row r="135" spans="2:16">
       <c r="B135" s="3" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5436,7 +6842,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="J135" s="2" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
@@ -5447,7 +6853,7 @@
     </row>
     <row r="136" spans="2:16">
       <c r="B136" s="3" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5465,7 +6871,7 @@
     </row>
     <row r="137" spans="2:16">
       <c r="B137" s="3" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5474,7 +6880,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="J137" s="2" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
@@ -5485,7 +6891,7 @@
     </row>
     <row r="138" spans="2:16">
       <c r="B138" s="3" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5494,7 +6900,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="J138" s="2" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
@@ -5512,7 +6918,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="J139" s="2" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
@@ -5523,7 +6929,7 @@
     </row>
     <row r="140" spans="2:16">
       <c r="B140" s="3" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5532,7 +6938,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="J140" s="2" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
@@ -5543,7 +6949,7 @@
     </row>
     <row r="141" spans="2:16">
       <c r="B141" s="3" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5552,7 +6958,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="J141" s="2" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
@@ -5563,7 +6969,7 @@
     </row>
     <row r="142" spans="2:16">
       <c r="B142" s="3" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5572,7 +6978,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="J142" s="2" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
@@ -5583,7 +6989,7 @@
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="3" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5592,7 +6998,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="J143" s="2" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
@@ -5610,7 +7016,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="J144" s="2" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -5621,7 +7027,7 @@
     </row>
     <row r="145" spans="2:16">
       <c r="B145" s="3" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5630,7 +7036,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="J145" s="2" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -5641,7 +7047,7 @@
     </row>
     <row r="146" spans="2:16">
       <c r="B146" s="3" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5650,7 +7056,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="J146" s="2" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
@@ -5661,7 +7067,7 @@
     </row>
     <row r="147" spans="2:16">
       <c r="B147" s="3" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5670,7 +7076,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="J147" s="2" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
@@ -5688,7 +7094,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="J148" s="2" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
@@ -5699,7 +7105,7 @@
     </row>
     <row r="149" spans="2:16">
       <c r="B149" s="3" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5708,7 +7114,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="J149" s="2" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
@@ -5719,7 +7125,7 @@
     </row>
     <row r="150" spans="2:16">
       <c r="B150" s="3" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5728,7 +7134,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="J150" s="2" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
@@ -5739,7 +7145,7 @@
     </row>
     <row r="151" spans="2:16">
       <c r="B151" s="3" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5748,7 +7154,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="J151" s="2" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
@@ -5775,7 +7181,7 @@
     </row>
     <row r="153" spans="2:16">
       <c r="B153" s="3" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5784,7 +7190,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="J153" s="2" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
@@ -5795,7 +7201,7 @@
     </row>
     <row r="154" spans="2:16">
       <c r="B154" s="3" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5804,7 +7210,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="J154" s="2" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -5815,7 +7221,7 @@
     </row>
     <row r="155" spans="2:16">
       <c r="B155" s="3" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5824,7 +7230,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="J155" s="2" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -5842,7 +7248,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="J156" s="2" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -5853,7 +7259,7 @@
     </row>
     <row r="157" spans="2:16">
       <c r="B157" s="3" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5862,7 +7268,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="J157" s="2" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -5873,7 +7279,7 @@
     </row>
     <row r="158" spans="2:16">
       <c r="B158" s="3" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5882,7 +7288,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="J158" s="2" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -5893,7 +7299,7 @@
     </row>
     <row r="159" spans="2:16">
       <c r="B159" s="3" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -5902,7 +7308,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="J159" s="2" t="s">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -5913,7 +7319,7 @@
     </row>
     <row r="160" spans="2:16">
       <c r="B160" s="3" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5922,7 +7328,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="J160" s="2" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -5940,7 +7346,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="J161" s="2" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -5951,7 +7357,7 @@
     </row>
     <row r="162" spans="2:16">
       <c r="B162" s="3" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5960,7 +7366,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="J162" s="2" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -5971,7 +7377,7 @@
     </row>
     <row r="163" spans="2:16">
       <c r="B163" s="3" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5980,7 +7386,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="J163" s="2" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -5991,7 +7397,7 @@
     </row>
     <row r="164" spans="2:16">
       <c r="B164" s="3" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -6000,7 +7406,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="J164" s="2" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -6011,7 +7417,7 @@
     </row>
     <row r="165" spans="2:16">
       <c r="B165" s="3" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -6020,7 +7426,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="J165" s="2" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -6031,7 +7437,7 @@
     </row>
     <row r="166" spans="2:16">
       <c r="B166" s="3" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6040,7 +7446,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="J166" s="2" t="s">
-        <v>287</v>
+        <v>356</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
@@ -6051,7 +7457,7 @@
     </row>
     <row r="167" spans="2:16">
       <c r="B167" s="3" t="s">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6060,7 +7466,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="J167" s="2" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
@@ -6071,7 +7477,7 @@
     </row>
     <row r="168" spans="2:16">
       <c r="B168" s="3" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6089,7 +7495,7 @@
     </row>
     <row r="169" spans="2:16">
       <c r="B169" s="3" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6098,7 +7504,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="J169" s="2" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
@@ -6116,7 +7522,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="J170" s="2" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
@@ -6127,7 +7533,7 @@
     </row>
     <row r="171" spans="2:16">
       <c r="B171" s="3" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6136,7 +7542,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="J171" s="2" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
@@ -6147,7 +7553,7 @@
     </row>
     <row r="172" spans="2:16">
       <c r="B172" s="3" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6156,7 +7562,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="J172" s="2" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
@@ -6167,7 +7573,7 @@
     </row>
     <row r="173" spans="2:16">
       <c r="B173" s="3" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6176,7 +7582,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="J173" s="2" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -6187,7 +7593,7 @@
     </row>
     <row r="174" spans="2:16">
       <c r="B174" s="3" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6196,7 +7602,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="J174" s="2" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
@@ -6214,7 +7620,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="J175" s="2" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -6225,7 +7631,7 @@
     </row>
     <row r="176" spans="2:16">
       <c r="B176" s="3" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6234,7 +7640,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="J176" s="2" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -6245,7 +7651,7 @@
     </row>
     <row r="177" spans="2:16">
       <c r="B177" s="3" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6254,7 +7660,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="J177" s="2" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -6265,7 +7671,7 @@
     </row>
     <row r="178" spans="2:16">
       <c r="B178" s="3" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6274,7 +7680,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="J178" s="2" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -6292,7 +7698,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="J179" s="2" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -6303,7 +7709,7 @@
     </row>
     <row r="180" spans="2:16">
       <c r="B180" s="3" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6312,7 +7718,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="J180" s="2" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -6323,7 +7729,7 @@
     </row>
     <row r="181" spans="2:16">
       <c r="B181" s="3" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6341,7 +7747,7 @@
     </row>
     <row r="182" spans="2:16">
       <c r="B182" s="3" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6350,7 +7756,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="J182" s="2" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -6368,7 +7774,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="J183" s="2" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -6379,7 +7785,7 @@
     </row>
     <row r="184" spans="2:16">
       <c r="B184" s="3" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6388,7 +7794,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="J184" s="2" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -6399,7 +7805,7 @@
     </row>
     <row r="185" spans="2:16">
       <c r="B185" s="3" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6408,7 +7814,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="J185" s="2" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -6419,7 +7825,7 @@
     </row>
     <row r="186" spans="2:16">
       <c r="B186" s="3" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6428,7 +7834,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="J186" s="2" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -6446,7 +7852,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="J187" s="2" t="s">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -6457,7 +7863,7 @@
     </row>
     <row r="188" spans="2:16">
       <c r="B188" s="2" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -6466,7 +7872,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -6477,7 +7883,7 @@
     </row>
     <row r="189" spans="2:16">
       <c r="B189" s="3" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -6486,7 +7892,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="J189" s="2" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -6504,7 +7910,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="J190" s="2" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -6522,7 +7928,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="J191" s="2" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -6540,7 +7946,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="J192" s="2" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -6551,7 +7957,7 @@
     </row>
     <row r="193" spans="2:16">
       <c r="B193" s="3" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -6560,7 +7966,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="J193" s="2" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
@@ -6571,7 +7977,7 @@
     </row>
     <row r="194" spans="2:16">
       <c r="B194" s="3" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -6589,7 +7995,7 @@
     </row>
     <row r="195" spans="2:16">
       <c r="B195" s="3" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -6598,7 +8004,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="J195" s="2" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -6609,7 +8015,7 @@
     </row>
     <row r="196" spans="2:16">
       <c r="B196" s="3" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -6618,7 +8024,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="J196" s="2" t="s">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -6629,7 +8035,7 @@
     </row>
     <row r="197" spans="2:16">
       <c r="B197" s="3" t="s">
-        <v>337</v>
+        <v>406</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -6638,7 +8044,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="J197" s="2" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
@@ -6649,7 +8055,7 @@
     </row>
     <row r="198" spans="2:16">
       <c r="B198" s="3" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -6658,7 +8064,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="J198" s="2" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
@@ -6669,7 +8075,7 @@
     </row>
     <row r="199" spans="2:16">
       <c r="B199" s="3" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -6678,7 +8084,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="J199" s="2" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
@@ -6689,7 +8095,7 @@
     </row>
     <row r="200" spans="2:16">
       <c r="B200" s="3" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -6698,7 +8104,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="J200" s="2" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -6716,7 +8122,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="J201" s="2" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
@@ -6727,7 +8133,7 @@
     </row>
     <row r="202" spans="2:16">
       <c r="B202" s="3" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -6736,7 +8142,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="J202" s="2" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -6747,7 +8153,7 @@
     </row>
     <row r="203" spans="2:16">
       <c r="B203" s="3" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -6756,7 +8162,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="J203" s="2" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
@@ -6767,7 +8173,7 @@
     </row>
     <row r="204" spans="2:16">
       <c r="B204" s="3" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -6776,7 +8182,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="J204" s="2" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -6787,7 +8193,7 @@
     </row>
     <row r="205" spans="2:16">
       <c r="B205" s="3" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -6796,7 +8202,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="J205" s="2" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -6814,7 +8220,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="J206" s="2" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -6825,7 +8231,7 @@
     </row>
     <row r="207" spans="2:16">
       <c r="B207" s="3" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -6843,7 +8249,7 @@
     </row>
     <row r="208" spans="2:16">
       <c r="B208" s="3" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -6852,7 +8258,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="J208" s="2" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
@@ -6863,7 +8269,7 @@
     </row>
     <row r="209" spans="2:16">
       <c r="B209" s="3" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -6872,7 +8278,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="J209" s="2" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -6890,7 +8296,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="J210" s="2" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -6901,7 +8307,7 @@
     </row>
     <row r="211" spans="2:16">
       <c r="B211" s="3" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -6910,7 +8316,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="J211" s="2" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -6921,7 +8327,7 @@
     </row>
     <row r="212" spans="2:16">
       <c r="B212" s="3" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -6930,7 +8336,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="J212" s="2" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -6941,7 +8347,7 @@
     </row>
     <row r="213" spans="2:16">
       <c r="B213" s="3" t="s">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -6950,7 +8356,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="J213" s="2" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -6968,7 +8374,7 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="J214" s="2" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -6979,7 +8385,7 @@
     </row>
     <row r="215" spans="2:16">
       <c r="B215" s="3" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -6988,7 +8394,7 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="J215" s="2" t="s">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -6999,7 +8405,7 @@
     </row>
     <row r="216" spans="2:16">
       <c r="B216" s="3" t="s">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7008,7 +8414,7 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="J216" s="2" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -7019,7 +8425,7 @@
     </row>
     <row r="217" spans="2:16">
       <c r="B217" s="3" t="s">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7028,7 +8434,7 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="J217" s="2" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
@@ -7046,7 +8452,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="J218" s="2" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -7057,7 +8463,7 @@
     </row>
     <row r="219" spans="2:16">
       <c r="B219" s="3" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7066,7 +8472,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="J219" s="2" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
@@ -7077,7 +8483,7 @@
     </row>
     <row r="220" spans="2:16">
       <c r="B220" s="3" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7086,7 +8492,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="J220" s="2" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -7097,7 +8503,7 @@
     </row>
     <row r="221" spans="2:16">
       <c r="B221" s="3" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7106,7 +8512,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="J221" s="2" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
@@ -7117,7 +8523,7 @@
     </row>
     <row r="222" spans="2:16">
       <c r="B222" s="3" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7126,7 +8532,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="J222" s="2" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
@@ -7153,7 +8559,7 @@
     </row>
     <row r="224" spans="2:16">
       <c r="B224" s="3" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -7162,7 +8568,7 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="J224" s="2" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -7173,7 +8579,7 @@
     </row>
     <row r="225" spans="2:16">
       <c r="B225" s="3" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -7182,7 +8588,7 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="J225" s="2" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
@@ -7193,7 +8599,7 @@
     </row>
     <row r="226" spans="2:16">
       <c r="B226" s="3" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -7202,7 +8608,7 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="J226" s="2" t="s">
-        <v>388</v>
+        <v>457</v>
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
@@ -7213,7 +8619,7 @@
     </row>
     <row r="227" spans="2:16">
       <c r="B227" s="3" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -7222,7 +8628,7 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="J227" s="2" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
@@ -7233,7 +8639,7 @@
     </row>
     <row r="228" spans="2:16">
       <c r="B228" s="3" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -7242,7 +8648,7 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="J228" s="2" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
@@ -7253,7 +8659,7 @@
     </row>
     <row r="229" spans="2:16">
       <c r="B229" s="3" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -7262,7 +8668,7 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="J229" s="2" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
@@ -7273,7 +8679,7 @@
     </row>
     <row r="230" spans="2:16">
       <c r="B230" s="3" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -7282,7 +8688,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="J230" s="2" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
@@ -7293,7 +8699,7 @@
     </row>
     <row r="231" spans="2:16">
       <c r="B231" s="3" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -7302,7 +8708,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="J231" s="2" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
@@ -7320,7 +8726,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="J232" s="2" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
@@ -7331,7 +8737,7 @@
     </row>
     <row r="233" spans="2:16">
       <c r="B233" s="3" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -7340,7 +8746,7 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="J233" s="2" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
@@ -7351,7 +8757,7 @@
     </row>
     <row r="234" spans="2:16">
       <c r="B234" s="3" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -7360,7 +8766,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="J234" s="2" t="s">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -7371,7 +8777,7 @@
     </row>
     <row r="235" spans="2:16">
       <c r="B235" s="3" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -7380,7 +8786,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="J235" s="2" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -7391,7 +8797,7 @@
     </row>
     <row r="236" spans="2:16">
       <c r="B236" s="3" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -7400,7 +8806,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="J236" s="2" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
@@ -7418,7 +8824,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="J237" s="2" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
@@ -7429,7 +8835,7 @@
     </row>
     <row r="238" spans="2:16">
       <c r="B238" s="3" t="s">
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -7438,7 +8844,7 @@
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="J238" s="2" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
@@ -7449,7 +8855,7 @@
     </row>
     <row r="239" spans="2:16">
       <c r="B239" s="3" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -7467,7 +8873,7 @@
     </row>
     <row r="240" spans="2:16">
       <c r="B240" s="3" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -7476,7 +8882,7 @@
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="J240" s="2" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
@@ -7494,7 +8900,7 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="J241" s="2" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
@@ -7505,7 +8911,7 @@
     </row>
     <row r="242" spans="2:16">
       <c r="B242" s="3" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -7514,7 +8920,7 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="J242" s="2" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
@@ -7525,7 +8931,7 @@
     </row>
     <row r="243" spans="2:16">
       <c r="B243" s="3" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -7534,7 +8940,7 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="J243" s="2" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
@@ -7545,7 +8951,7 @@
     </row>
     <row r="244" spans="2:16">
       <c r="B244" s="3" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -7554,7 +8960,7 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="J244" s="2" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
@@ -7572,7 +8978,7 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="J245" s="2" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
@@ -7583,7 +8989,7 @@
     </row>
     <row r="246" spans="2:16">
       <c r="B246" s="3" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -7592,7 +8998,7 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="J246" s="2" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -7603,7 +9009,7 @@
     </row>
     <row r="247" spans="2:16">
       <c r="B247" s="3" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -7612,7 +9018,7 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="J247" s="2" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
@@ -7623,7 +9029,7 @@
     </row>
     <row r="248" spans="2:16">
       <c r="B248" s="3" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -7632,7 +9038,7 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="J248" s="2" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
@@ -7650,7 +9056,7 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="J249" s="2" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
@@ -7668,7 +9074,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="J250" s="2" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
@@ -7679,7 +9085,7 @@
     </row>
     <row r="251" spans="2:16">
       <c r="B251" s="3" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -7688,7 +9094,7 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="J251" s="2" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
@@ -7699,7 +9105,7 @@
     </row>
     <row r="252" spans="2:16">
       <c r="B252" s="3" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -7708,7 +9114,7 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="J252" s="2" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
@@ -7719,7 +9125,7 @@
     </row>
     <row r="253" spans="2:16">
       <c r="B253" s="3" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -7728,7 +9134,7 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="J253" s="2" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
@@ -7739,7 +9145,7 @@
     </row>
     <row r="254" spans="2:16">
       <c r="B254" s="3" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -7748,7 +9154,7 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="J254" s="2" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
@@ -7759,7 +9165,7 @@
     </row>
     <row r="255" spans="2:16">
       <c r="B255" s="3" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -7777,7 +9183,7 @@
     </row>
     <row r="256" spans="2:16">
       <c r="B256" s="3" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -7786,7 +9192,7 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="J256" s="2" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
@@ -7797,7 +9203,7 @@
     </row>
     <row r="257" spans="2:16">
       <c r="B257" s="3" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -7806,7 +9212,7 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="J257" s="2" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
@@ -7817,7 +9223,7 @@
     </row>
     <row r="258" spans="2:16">
       <c r="B258" s="3" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -7826,7 +9232,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="J258" s="2" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
@@ -7844,7 +9250,7 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="J259" s="2" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
@@ -7855,7 +9261,7 @@
     </row>
     <row r="260" spans="2:16">
       <c r="B260" s="3" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -7864,7 +9270,7 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="J260" s="2" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
@@ -7875,7 +9281,7 @@
     </row>
     <row r="261" spans="2:16">
       <c r="B261" s="3" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -7884,7 +9290,7 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="J261" s="2" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
@@ -7895,7 +9301,7 @@
     </row>
     <row r="262" spans="2:16">
       <c r="B262" s="3" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -7904,7 +9310,7 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="J262" s="2" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
@@ -7915,7 +9321,7 @@
     </row>
     <row r="263" spans="2:16">
       <c r="B263" s="3" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -7924,7 +9330,7 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="J263" s="2" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
@@ -7935,7 +9341,7 @@
     </row>
     <row r="264" spans="2:16">
       <c r="B264" s="3" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -7944,7 +9350,7 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="J264" s="2" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
@@ -7955,7 +9361,7 @@
     </row>
     <row r="265" spans="2:16">
       <c r="B265" s="3" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -7964,7 +9370,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="J265" s="2" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
@@ -7975,7 +9381,7 @@
     </row>
     <row r="266" spans="2:16">
       <c r="B266" s="3" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -7984,7 +9390,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="J266" s="2" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
@@ -7995,7 +9401,7 @@
     </row>
     <row r="267" spans="2:16">
       <c r="B267" s="3" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -8004,7 +9410,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="J267" s="2" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
@@ -8031,7 +9437,7 @@
     </row>
     <row r="269" spans="2:16">
       <c r="B269" s="3" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -8040,7 +9446,7 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="J269" s="2" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
@@ -8051,7 +9457,7 @@
     </row>
     <row r="270" spans="2:16">
       <c r="B270" s="3" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -8060,7 +9466,7 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="J270" s="2" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
@@ -8071,7 +9477,7 @@
     </row>
     <row r="271" spans="2:16">
       <c r="B271" s="3" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -8080,7 +9486,7 @@
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="J271" s="2" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
@@ -8091,7 +9497,7 @@
     </row>
     <row r="272" spans="2:16">
       <c r="B272" s="3" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -8100,7 +9506,7 @@
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="J272" s="2" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
@@ -8111,7 +9517,7 @@
     </row>
     <row r="273" spans="2:16">
       <c r="B273" s="3" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -8120,7 +9526,7 @@
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="J273" s="2" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
@@ -8131,7 +9537,7 @@
     </row>
     <row r="274" spans="2:16">
       <c r="B274" s="3" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -8140,7 +9546,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="J274" s="2" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
@@ -8151,7 +9557,7 @@
     </row>
     <row r="275" spans="2:16">
       <c r="B275" s="3" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -8160,7 +9566,7 @@
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="J275" s="2" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
@@ -8171,7 +9577,7 @@
     </row>
     <row r="276" spans="2:16">
       <c r="B276" s="3" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -8180,7 +9586,7 @@
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="J276" s="2" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
@@ -8198,7 +9604,7 @@
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="J277" s="2" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
@@ -8209,7 +9615,7 @@
     </row>
     <row r="278" spans="2:16">
       <c r="B278" s="3" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -8218,7 +9624,7 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="J278" s="2" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
@@ -8229,7 +9635,7 @@
     </row>
     <row r="279" spans="2:16">
       <c r="B279" s="3" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -8238,7 +9644,7 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="J279" s="2" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
@@ -8249,7 +9655,7 @@
     </row>
     <row r="280" spans="2:16">
       <c r="B280" s="3" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -8258,7 +9664,7 @@
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="J280" s="2" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
@@ -8269,7 +9675,7 @@
     </row>
     <row r="281" spans="2:16">
       <c r="B281" s="3" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -8287,7 +9693,7 @@
     </row>
     <row r="282" spans="2:16">
       <c r="B282" s="3" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -8296,7 +9702,7 @@
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="J282" s="2" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
@@ -8307,7 +9713,7 @@
     </row>
     <row r="283" spans="2:16">
       <c r="B283" s="3" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -8316,7 +9722,7 @@
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="J283" s="2" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
@@ -8327,7 +9733,7 @@
     </row>
     <row r="284" spans="2:16">
       <c r="B284" s="3" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -8336,7 +9742,7 @@
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="J284" s="2" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
@@ -8347,7 +9753,7 @@
     </row>
     <row r="285" spans="2:16">
       <c r="B285" s="3" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -8356,7 +9762,7 @@
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="J285" s="2" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
@@ -8374,7 +9780,7 @@
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="J286" s="2" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
@@ -8385,7 +9791,7 @@
     </row>
     <row r="287" spans="2:16">
       <c r="B287" s="2" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -8394,7 +9800,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="J287" s="2" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
@@ -8405,7 +9811,7 @@
     </row>
     <row r="288" spans="2:16">
       <c r="B288" s="3" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -8414,7 +9820,7 @@
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="J288" s="2" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
@@ -8425,7 +9831,7 @@
     </row>
     <row r="289" spans="2:16">
       <c r="B289" s="3" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -8434,7 +9840,7 @@
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="J289" s="2" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
@@ -8445,7 +9851,7 @@
     </row>
     <row r="290" spans="2:16">
       <c r="B290" s="3" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -8454,7 +9860,7 @@
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="J290" s="2" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
@@ -8472,7 +9878,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="J291" s="2" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
@@ -8483,7 +9889,7 @@
     </row>
     <row r="292" spans="2:16">
       <c r="B292" s="3" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -8492,7 +9898,7 @@
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="J292" s="2" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
@@ -8503,7 +9909,7 @@
     </row>
     <row r="293" spans="2:16">
       <c r="B293" s="3" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -8512,7 +9918,7 @@
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="J293" s="2" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
@@ -8523,7 +9929,7 @@
     </row>
     <row r="294" spans="2:16">
       <c r="B294" s="3" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -8541,7 +9947,7 @@
     </row>
     <row r="295" spans="10:16">
       <c r="J295" s="2" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
@@ -8552,7 +9958,7 @@
     </row>
     <row r="296" spans="2:16">
       <c r="B296" s="3" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -8561,7 +9967,7 @@
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="J296" s="2" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
@@ -8572,7 +9978,7 @@
     </row>
     <row r="297" spans="2:16">
       <c r="B297" s="3" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -8581,7 +9987,7 @@
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="J297" s="2" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -8592,7 +9998,7 @@
     </row>
     <row r="298" spans="2:16">
       <c r="B298" s="3" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -8601,7 +10007,7 @@
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="J298" s="2" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
@@ -8612,7 +10018,7 @@
     </row>
     <row r="299" spans="10:16">
       <c r="J299" s="2" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
@@ -8623,7 +10029,7 @@
     </row>
     <row r="300" spans="2:16">
       <c r="B300" s="3" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -8632,7 +10038,7 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="J300" s="2" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
@@ -8643,7 +10049,7 @@
     </row>
     <row r="301" spans="2:16">
       <c r="B301" s="3" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -8652,7 +10058,7 @@
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="J301" s="2" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
@@ -8663,7 +10069,7 @@
     </row>
     <row r="302" spans="2:16">
       <c r="B302" s="3" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -8672,7 +10078,7 @@
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="J302" s="2" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
@@ -8683,7 +10089,7 @@
     </row>
     <row r="303" spans="10:16">
       <c r="J303" s="2" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
@@ -8694,7 +10100,7 @@
     </row>
     <row r="304" spans="10:16">
       <c r="J304" s="2" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
@@ -8705,7 +10111,7 @@
     </row>
     <row r="305" spans="2:16">
       <c r="B305" s="2" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -8714,7 +10120,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="J305" s="2" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
@@ -8725,7 +10131,7 @@
     </row>
     <row r="306" spans="2:16">
       <c r="B306" s="3" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -8734,7 +10140,7 @@
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="J306" s="2" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
@@ -8745,7 +10151,7 @@
     </row>
     <row r="307" spans="2:16">
       <c r="B307" s="3" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -8754,7 +10160,7 @@
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="J307" s="2" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
@@ -8765,7 +10171,7 @@
     </row>
     <row r="308" spans="2:16">
       <c r="B308" s="3" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -8774,7 +10180,7 @@
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="J308" s="2" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
@@ -8792,7 +10198,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="J309" s="2" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
@@ -8803,7 +10209,7 @@
     </row>
     <row r="310" spans="2:16">
       <c r="B310" s="3" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -8821,7 +10227,7 @@
     </row>
     <row r="311" spans="2:16">
       <c r="B311" s="3" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -8830,7 +10236,7 @@
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="J311" s="2" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
@@ -8841,7 +10247,7 @@
     </row>
     <row r="312" spans="2:16">
       <c r="B312" s="3" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -8850,7 +10256,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="J312" s="2" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
@@ -8861,7 +10267,7 @@
     </row>
     <row r="313" spans="10:16">
       <c r="J313" s="2" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
@@ -8872,7 +10278,7 @@
     </row>
     <row r="314" spans="2:16">
       <c r="B314" s="3" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -8881,7 +10287,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="J314" s="2" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
@@ -8892,7 +10298,7 @@
     </row>
     <row r="315" spans="2:16">
       <c r="B315" s="3" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -8901,7 +10307,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="J315" s="2" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
@@ -8912,7 +10318,7 @@
     </row>
     <row r="316" spans="2:16">
       <c r="B316" s="3" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -8921,7 +10327,7 @@
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="J316" s="2" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
@@ -8932,7 +10338,7 @@
     </row>
     <row r="317" spans="10:16">
       <c r="J317" s="2" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
@@ -8943,7 +10349,7 @@
     </row>
     <row r="318" spans="2:16">
       <c r="B318" s="3" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -8952,7 +10358,7 @@
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
       <c r="J318" s="2" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
@@ -8963,7 +10369,7 @@
     </row>
     <row r="319" spans="2:16">
       <c r="B319" s="3" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -8972,7 +10378,7 @@
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="J319" s="2" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
@@ -8983,7 +10389,7 @@
     </row>
     <row r="320" spans="2:16">
       <c r="B320" s="3" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -8992,7 +10398,7 @@
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
       <c r="J320" s="2" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
@@ -9003,7 +10409,7 @@
     </row>
     <row r="321" spans="10:16">
       <c r="J321" s="2" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
@@ -9014,7 +10420,7 @@
     </row>
     <row r="322" spans="10:16">
       <c r="J322" s="2" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
@@ -9025,7 +10431,7 @@
     </row>
     <row r="323" spans="10:16">
       <c r="J323" s="2" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
@@ -9036,7 +10442,7 @@
     </row>
     <row r="324" spans="10:16">
       <c r="J324" s="2" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
@@ -9047,7 +10453,7 @@
     </row>
     <row r="325" spans="10:16">
       <c r="J325" s="2" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
@@ -9067,7 +10473,7 @@
     </row>
     <row r="327" spans="10:16">
       <c r="J327" s="2" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
@@ -9078,7 +10484,7 @@
     </row>
     <row r="328" spans="10:16">
       <c r="J328" s="2" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
@@ -9089,7 +10495,7 @@
     </row>
     <row r="329" spans="10:16">
       <c r="J329" s="2" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
@@ -9100,7 +10506,7 @@
     </row>
     <row r="330" spans="10:16">
       <c r="J330" s="2" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
@@ -9111,7 +10517,7 @@
     </row>
     <row r="331" spans="10:16">
       <c r="J331" s="2" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
@@ -9122,7 +10528,7 @@
     </row>
     <row r="332" spans="10:16">
       <c r="J332" s="2" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
@@ -9133,7 +10539,7 @@
     </row>
     <row r="333" spans="10:16">
       <c r="J333" s="2" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
@@ -9144,7 +10550,7 @@
     </row>
     <row r="334" spans="10:16">
       <c r="J334" s="2" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
@@ -9155,7 +10561,7 @@
     </row>
     <row r="335" spans="10:16">
       <c r="J335" s="2" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -9166,7 +10572,7 @@
     </row>
     <row r="336" spans="10:16">
       <c r="J336" s="2" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -9177,7 +10583,7 @@
     </row>
     <row r="337" spans="10:16">
       <c r="J337" s="2" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -9188,7 +10594,7 @@
     </row>
     <row r="338" spans="10:16">
       <c r="J338" s="2" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
@@ -9199,7 +10605,7 @@
     </row>
     <row r="339" spans="10:16">
       <c r="J339" s="2" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
@@ -9210,7 +10616,7 @@
     </row>
     <row r="340" spans="10:16">
       <c r="J340" s="2" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
@@ -9221,7 +10627,7 @@
     </row>
     <row r="341" spans="10:16">
       <c r="J341" s="2" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
@@ -9232,7 +10638,7 @@
     </row>
     <row r="343" spans="10:16">
       <c r="J343" s="3" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
@@ -9243,7 +10649,7 @@
     </row>
     <row r="344" spans="10:16">
       <c r="J344" s="3" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
@@ -9254,7 +10660,7 @@
     </row>
     <row r="345" spans="10:16">
       <c r="J345" s="3" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
@@ -9265,7 +10671,7 @@
     </row>
     <row r="346" spans="10:16">
       <c r="J346" s="3" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
@@ -9276,7 +10682,7 @@
     </row>
     <row r="347" spans="10:16">
       <c r="J347" s="3" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
@@ -9287,7 +10693,7 @@
     </row>
     <row r="348" spans="10:16">
       <c r="J348" s="3" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
@@ -9298,7 +10704,7 @@
     </row>
     <row r="349" spans="10:16">
       <c r="J349" s="3" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
@@ -9309,7 +10715,7 @@
     </row>
     <row r="350" spans="10:16">
       <c r="J350" s="3" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
@@ -9320,7 +10726,7 @@
     </row>
     <row r="351" spans="10:16">
       <c r="J351" s="3" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
@@ -9331,7 +10737,7 @@
     </row>
     <row r="352" spans="10:16">
       <c r="J352" s="3" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
@@ -9342,7 +10748,7 @@
     </row>
     <row r="353" spans="10:16">
       <c r="J353" s="3" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
@@ -9353,7 +10759,7 @@
     </row>
     <row r="354" spans="10:16">
       <c r="J354" s="3" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
@@ -9364,7 +10770,7 @@
     </row>
     <row r="356" spans="10:16">
       <c r="J356" s="3" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
@@ -9375,7 +10781,7 @@
     </row>
     <row r="357" spans="10:16">
       <c r="J357" s="3" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
@@ -9386,7 +10792,7 @@
     </row>
     <row r="358" spans="10:16">
       <c r="J358" s="3" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
@@ -9397,7 +10803,7 @@
     </row>
     <row r="359" spans="10:16">
       <c r="J359" s="3" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
@@ -9408,7 +10814,7 @@
     </row>
     <row r="360" spans="10:16">
       <c r="J360" s="3" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
@@ -9419,7 +10825,7 @@
     </row>
     <row r="361" spans="10:16">
       <c r="J361" s="3" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
@@ -9430,7 +10836,7 @@
     </row>
     <row r="362" spans="10:16">
       <c r="J362" s="3" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
@@ -9441,7 +10847,7 @@
     </row>
     <row r="363" spans="10:16">
       <c r="J363" s="3" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
@@ -9452,7 +10858,7 @@
     </row>
     <row r="364" spans="10:16">
       <c r="J364" s="3" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
@@ -9463,7 +10869,7 @@
     </row>
     <row r="365" spans="10:16">
       <c r="J365" s="3" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
@@ -9474,7 +10880,7 @@
     </row>
     <row r="366" spans="10:16">
       <c r="J366" s="3" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
@@ -9485,7 +10891,7 @@
     </row>
     <row r="367" spans="10:16">
       <c r="J367" s="3" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
